--- a/php/语法/PHP函数分目参考.xlsx
+++ b/php/语法/PHP函数分目参考.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29040" windowHeight="12975" activeTab="9"/>
+    <workbookView windowWidth="21000" windowHeight="11790" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="判断函数" sheetId="8" r:id="rId1"/>
@@ -519,7 +519,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="1246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="1250">
   <si>
     <t>双精度判断</t>
   </si>
@@ -12873,31 +12873,37 @@
     <t>socket_create_listen</t>
   </si>
   <si>
-    <t>Opens a socket on port to accept connections</t>
+    <t>在指定端口打开一个socket监听</t>
   </si>
   <si>
     <t>socket_create_pair</t>
   </si>
   <si>
-    <t>Creates a pair of indistinguishable sockets and stores them in an array</t>
+    <t>产生一对没有区别的socket到一个数组里</t>
   </si>
   <si>
     <t>socket_create</t>
   </si>
   <si>
-    <t>创建一个套接字（通讯节点）</t>
+    <t>产生一个socket，相当于产生一个socket的数据结构</t>
   </si>
   <si>
     <t>socket_set_option</t>
   </si>
   <si>
-    <t>Sets socket options for the socket</t>
+    <t>设置socket选项</t>
   </si>
   <si>
     <t>socket_setopt</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>别名</t>
     </r>
     <r>
@@ -12917,19 +12923,38 @@
     <t>socket_bind</t>
   </si>
   <si>
-    <t>给套接字绑定名字</t>
+    <t>把socket绑定在一个IP地址和端口上</t>
+  </si>
+  <si>
+    <t>socket_connect</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>试图连接</t>
+    </r>
+  </si>
+  <si>
+    <t>功能和bind的有点相同</t>
   </si>
   <si>
     <t>socket_listen</t>
   </si>
   <si>
-    <t>Listens for a connection on a socket</t>
+    <t>监听由指定socket的所有连接</t>
   </si>
   <si>
     <t>socket_get_option</t>
   </si>
   <si>
-    <t>Gets socket options for the socket</t>
+    <t>取socket选项</t>
+  </si>
+  <si>
+    <t>获取连接信息</t>
   </si>
   <si>
     <t>socket_getopt</t>
@@ -12941,7 +12966,7 @@
     <t>socket_getpeername</t>
   </si>
   <si>
-    <t>Queries the remote side of the given socket which may either result in host/port or in a Unix filesystem path, dependent on its type</t>
+    <t>获取远程类似主机的ip地址</t>
   </si>
   <si>
     <t>type</t>
@@ -12950,79 +12975,85 @@
     <t>socket_getsockname</t>
   </si>
   <si>
-    <t>Queries the local side of the given socket which may either result in host/port or in a Unix filesystem path, dependent on its type</t>
+    <t>获取本地socket的ip地址</t>
   </si>
   <si>
     <t>socket_select</t>
   </si>
   <si>
-    <t>Runs the select() system call on the given arrays of sockets with a specified timeout</t>
+    <t>多路选择</t>
   </si>
   <si>
     <t>socket_accept</t>
   </si>
   <si>
-    <t>Accepts a connection on a socket</t>
+    <t>接受一个Socket连接</t>
   </si>
   <si>
     <t>socket_write</t>
   </si>
   <si>
-    <t>Write to a socket</t>
+    <t>写数据到socket缓存</t>
   </si>
   <si>
     <t>socket_read</t>
   </si>
   <si>
-    <t>Reads a maximum of length bytes from a socket</t>
+    <t>读取指定长度的数据</t>
   </si>
   <si>
     <t>socket_recv</t>
   </si>
   <si>
-    <t>从已连接的socket接收数据</t>
+    <t>从socket里结束数据到缓存</t>
+  </si>
+  <si>
+    <t>获取数据</t>
   </si>
   <si>
     <t>socket_recvfrom</t>
   </si>
   <si>
-    <t>Receives data from a socket whether or not it is connection-oriented</t>
+    <t>接受数据从指定的socket，如果没有指定则默认当前socket</t>
   </si>
   <si>
     <t>socket_recvmsg</t>
   </si>
   <si>
-    <t>Read a message</t>
+    <t>从iovec里接受消息</t>
+  </si>
+  <si>
+    <t>发送数据</t>
   </si>
   <si>
     <t>socket_send</t>
   </si>
   <si>
-    <t>Sends data to a connected socket</t>
+    <t>这个函数发送数据到已连接的socket</t>
   </si>
   <si>
     <t>socket_sendmsg</t>
   </si>
   <si>
-    <t>Send a message</t>
+    <t>发送消息到socket</t>
   </si>
   <si>
     <t>socket_sendto</t>
   </si>
   <si>
-    <t>Sends a message to a socket, whether it is connected or not</t>
+    <t>发送消息到指定地址的socket</t>
   </si>
   <si>
     <t>socket_last_error</t>
   </si>
   <si>
-    <t>Returns the last error on the socket</t>
+    <t>获取当前socket的最后错误代码</t>
   </si>
   <si>
     <t>socket_strerror</t>
   </si>
   <si>
-    <t>Return a string describing a socket error</t>
+    <t>返回指定错误号的详细错误</t>
   </si>
   <si>
     <t>socket_clear_error</t>
@@ -13031,6 +13062,66 @@
     <t>清除套接字或者最后的错误代码上的错误</t>
   </si>
   <si>
+    <t>socket_close</t>
+  </si>
+  <si>
+    <t>关闭套接字资源</t>
+  </si>
+  <si>
+    <t>socket_cmsg_space</t>
+  </si>
+  <si>
+    <t>Calculate message buffer size</t>
+  </si>
+  <si>
+    <t>socket_export_stream</t>
+  </si>
+  <si>
+    <t>Export a socket extension resource into a stream that encapsulates a socket</t>
+  </si>
+  <si>
+    <t>socket_import_stream</t>
+  </si>
+  <si>
+    <t>Import a stream</t>
+  </si>
+  <si>
+    <t>socket_set_block</t>
+  </si>
+  <si>
+    <t>在socket里设置为块模式</t>
+  </si>
+  <si>
+    <t>socket_set_nonblock</t>
+  </si>
+  <si>
+    <t>socket里设置为非块模式</t>
+  </si>
+  <si>
+    <t>socket_shutdown</t>
+  </si>
+  <si>
+    <t>这个函数允许你关闭读、写、或者指定的socket</t>
+  </si>
+  <si>
+    <t>socket_wsaprotocol_info_export</t>
+  </si>
+  <si>
+    <t>Exports the WSAPROTOCOL_INFO Structure</t>
+  </si>
+  <si>
+    <t>socket_wsaprotocol_info_import</t>
+  </si>
+  <si>
+    <t>Imports a Socket from another Process</t>
+  </si>
+  <si>
+    <t>socket_wsaprotocol_info_release</t>
+  </si>
+  <si>
+    <t>Releases an exported WSAPROTOCOL_INFO Structure</t>
+  </si>
+  <si>
     <t>socket_addrinfo_bind</t>
   </si>
   <si>
@@ -13053,72 +13144,6 @@
   </si>
   <si>
     <t>Get array with contents of getaddrinfo about the given hostname</t>
-  </si>
-  <si>
-    <t>socket_close</t>
-  </si>
-  <si>
-    <t>关闭套接字资源</t>
-  </si>
-  <si>
-    <t>socket_cmsg_space</t>
-  </si>
-  <si>
-    <t>Calculate message buffer size</t>
-  </si>
-  <si>
-    <t>socket_connect</t>
-  </si>
-  <si>
-    <t>开启一个套接字连接</t>
-  </si>
-  <si>
-    <t>socket_export_stream</t>
-  </si>
-  <si>
-    <t>Export a socket extension resource into a stream that encapsulates a socket</t>
-  </si>
-  <si>
-    <t>socket_import_stream</t>
-  </si>
-  <si>
-    <t>Import a stream</t>
-  </si>
-  <si>
-    <t>socket_set_block</t>
-  </si>
-  <si>
-    <t>Sets blocking mode on a socket resource</t>
-  </si>
-  <si>
-    <t>socket_set_nonblock</t>
-  </si>
-  <si>
-    <t>Sets nonblocking mode for file descriptor fd</t>
-  </si>
-  <si>
-    <t>socket_shutdown</t>
-  </si>
-  <si>
-    <t>Shuts down a socket for receiving, sending, or both</t>
-  </si>
-  <si>
-    <t>socket_wsaprotocol_info_export</t>
-  </si>
-  <si>
-    <t>Exports the WSAPROTOCOL_INFO Structure</t>
-  </si>
-  <si>
-    <t>socket_wsaprotocol_info_import</t>
-  </si>
-  <si>
-    <t>Imports a Socket from another Process</t>
-  </si>
-  <si>
-    <t>socket_wsaprotocol_info_release</t>
-  </si>
-  <si>
-    <t>Releases an exported WSAPROTOCOL_INFO Structure</t>
   </si>
 </sst>
 </file>
@@ -13126,12 +13151,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="52">
+  <fonts count="55">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13148,6 +13173,17 @@
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Verdana"/>
       <charset val="134"/>
     </font>
     <font>
@@ -13293,21 +13329,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13327,18 +13349,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13357,6 +13386,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -13366,8 +13402,31 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13390,7 +13449,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13398,7 +13457,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13412,27 +13471,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -13539,7 +13580,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13551,91 +13730,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13648,66 +13749,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13940,7 +13981,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13960,6 +14001,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -13971,6 +14021,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13990,17 +14060,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -14015,34 +14074,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -14051,134 +14092,134 @@
     <xf numFmtId="41" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="36" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="25" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -14191,397 +14232,395 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -15460,7 +15499,7 @@
   <dimension ref="A1:Z50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15476,7 +15515,7 @@
       <c r="B1" s="3" t="s">
         <v>1166</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1167</v>
       </c>
     </row>
@@ -15484,7 +15523,7 @@
       <c r="B2" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>1169</v>
       </c>
     </row>
@@ -15492,7 +15531,7 @@
       <c r="B3" s="3" t="s">
         <v>1170</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>1171</v>
       </c>
     </row>
@@ -15503,7 +15542,7 @@
       <c r="B5" s="3" t="s">
         <v>1172</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>1173</v>
       </c>
     </row>
@@ -15511,7 +15550,7 @@
       <c r="B6" s="3" t="s">
         <v>1174</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>1175</v>
       </c>
     </row>
@@ -15522,201 +15561,173 @@
       <c r="B7" s="3" t="s">
         <v>1177</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:7">
       <c r="B8" s="3" t="s">
         <v>1179</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="6" t="s">
         <v>1180</v>
       </c>
+      <c r="G8" s="2" t="s">
+        <v>1181</v>
+      </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1183</v>
+      </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="3" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="2:3">
       <c r="B11" s="3" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C11" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="D11" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="12" spans="2:26">
+      <c r="C11" s="4" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>1186</v>
+      </c>
       <c r="B12" s="3" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12" t="s">
         <v>1187</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="13" spans="2:26">
       <c r="B13" s="3" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C13" s="3" t="s">
         <v>1189</v>
       </c>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
-      <c r="R13"/>
-      <c r="S13"/>
-      <c r="T13"/>
-      <c r="U13"/>
-      <c r="V13"/>
-      <c r="W13"/>
-      <c r="X13"/>
-      <c r="Y13"/>
+      <c r="C13" s="4" t="s">
+        <v>1190</v>
+      </c>
       <c r="Z13" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="3" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C15" s="3" t="s">
         <v>1191</v>
       </c>
     </row>
+    <row r="14" spans="2:26">
+      <c r="B14" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="3"/>
+    </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>1193</v>
+      <c r="B16" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="3" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>1195</v>
+      <c r="B17" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>1199</v>
+      </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="3" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>1197</v>
-      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="3" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>1199</v>
+        <v>1200</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>1201</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="3" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
+        <v>1202</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>1204</v>
+      </c>
       <c r="B22" s="3" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>1203</v>
+        <v>1205</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>1206</v>
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>1208</v>
+      </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="3" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>1209</v>
+      </c>
       <c r="B25" s="3" t="s">
-        <v>1206</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>1207</v>
+        <v>1210</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>1211</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="3" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>1209</v>
+        <v>1212</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>1215</v>
+      </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="3"/>
@@ -15731,194 +15742,193 @@
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="3" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>1211</v>
-      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="3" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
+        <v>1216</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="B33" s="3" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>1215</v>
+        <v>1218</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>1219</v>
       </c>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1221</v>
+      </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="1" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>1217</v>
-      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>1219</v>
+      <c r="B37" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1223</v>
       </c>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="1" t="s">
-        <v>1220</v>
+      <c r="B38" s="3" t="s">
+        <v>1224</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>1221</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="3" t="s">
-        <v>1222</v>
+        <v>1226</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>1223</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="3" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>1225</v>
+        <v>1228</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>1229</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="3" t="s">
-        <v>1226</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>1227</v>
+        <v>1230</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>1231</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="3" t="s">
-        <v>1228</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>1229</v>
+        <v>1232</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>1233</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" s="3" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>1231</v>
+        <v>1234</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>1235</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="3" t="s">
-        <v>1232</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>1233</v>
+        <v>1236</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>1237</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" s="3" t="s">
-        <v>1234</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>1235</v>
+        <v>1238</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>1239</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" s="3" t="s">
-        <v>1236</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>1237</v>
+        <v>1240</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>1241</v>
       </c>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="3" t="s">
-        <v>1238</v>
+      <c r="B47" s="1" t="s">
+        <v>1242</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>1239</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="3" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>1241</v>
+      <c r="B48" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>1245</v>
       </c>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="3" t="s">
-        <v>1242</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>1243</v>
+      <c r="B49" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>1247</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="3" t="s">
-        <v>1244</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>1245</v>
+        <v>1248</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>1249</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B39" r:id="rId1" display="socket_addrinfo_lookup" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-accept.html"/>
+    <hyperlink ref="B50" r:id="rId1" display="socket_addrinfo_lookup" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-accept.html"/>
     <hyperlink ref="B7" r:id="rId2" display="socket_bind" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-addrinfo-bind.html"/>
-    <hyperlink ref="B33" r:id="rId3" display="socket_clear_error" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-addrinfo-connect.html"/>
-    <hyperlink ref="B40" r:id="rId4" display="socket_close" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-addrinfo-explain.html"/>
-    <hyperlink ref="B41" r:id="rId5" display="socket_cmsg_space" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-addrinfo-lookup.html"/>
-    <hyperlink ref="B42" r:id="rId6" display="socket_connect" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-bind.html"/>
+    <hyperlink ref="B34" r:id="rId3" display="socket_clear_error" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-addrinfo-connect.html"/>
+    <hyperlink ref="B37" r:id="rId4" display="socket_close" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-addrinfo-explain.html"/>
+    <hyperlink ref="B38" r:id="rId5" display="socket_cmsg_space" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-addrinfo-lookup.html"/>
+    <hyperlink ref="B8" r:id="rId6" display="socket_connect" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-bind.html"/>
     <hyperlink ref="B1" r:id="rId7" display="socket_create_listen" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-clear-error.html"/>
     <hyperlink ref="B2" r:id="rId8" display="socket_create_pair" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-close.html"/>
     <hyperlink ref="B3" r:id="rId9" display="socket_create" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-cmsg-space.html"/>
-    <hyperlink ref="B43" r:id="rId10" display="socket_export_stream" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-connect.html"/>
-    <hyperlink ref="B10" r:id="rId11" display="socket_get_option" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-create-listen.html"/>
-    <hyperlink ref="B11" r:id="rId12" display="socket_getopt" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-create-pair.html"/>
-    <hyperlink ref="B12" r:id="rId13" display="socket_getpeername" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-create.html"/>
-    <hyperlink ref="B13" r:id="rId14" display="socket_getsockname" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-export-stream.html"/>
-    <hyperlink ref="B44" r:id="rId15" display="socket_import_stream" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-get-option.html"/>
-    <hyperlink ref="B31" r:id="rId16" display="socket_last_error" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-getopt.html"/>
-    <hyperlink ref="B8" r:id="rId17" display="socket_listen" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-getpeername.html"/>
-    <hyperlink ref="B19" r:id="rId18" display="socket_read" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-getsockname.html"/>
-    <hyperlink ref="B20" r:id="rId19" display="socket_recv" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-import-stream.html"/>
-    <hyperlink ref="B21" r:id="rId20" display="socket_recvfrom" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-last-error.html"/>
-    <hyperlink ref="B22" r:id="rId21" display="socket_recvmsg" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-listen.html"/>
-    <hyperlink ref="B15" r:id="rId22" display="socket_select" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-read.html"/>
-    <hyperlink ref="B24" r:id="rId23" display="socket_send" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-recv.html"/>
-    <hyperlink ref="B25" r:id="rId24" display="socket_sendmsg" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-recvfrom.html"/>
-    <hyperlink ref="B26" r:id="rId25" display="socket_sendto" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-recvmsg.html"/>
-    <hyperlink ref="B45" r:id="rId26" display="socket_set_block" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-select.html"/>
-    <hyperlink ref="B46" r:id="rId27" display="socket_set_nonblock" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-send.html"/>
+    <hyperlink ref="B39" r:id="rId10" display="socket_export_stream" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-connect.html"/>
+    <hyperlink ref="B11" r:id="rId11" display="socket_get_option" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-create-listen.html"/>
+    <hyperlink ref="B12" r:id="rId12" display="socket_getopt" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-create-pair.html"/>
+    <hyperlink ref="B13" r:id="rId13" display="socket_getpeername" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-create.html"/>
+    <hyperlink ref="B14" r:id="rId14" display="socket_getsockname" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-export-stream.html"/>
+    <hyperlink ref="B40" r:id="rId15" display="socket_import_stream" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-get-option.html"/>
+    <hyperlink ref="B32" r:id="rId16" display="socket_last_error" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-getopt.html"/>
+    <hyperlink ref="B9" r:id="rId17" display="socket_listen" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-getpeername.html"/>
+    <hyperlink ref="B20" r:id="rId18" display="socket_read" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-getsockname.html"/>
+    <hyperlink ref="B21" r:id="rId19" display="socket_recv" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-import-stream.html"/>
+    <hyperlink ref="B22" r:id="rId20" display="socket_recvfrom" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-last-error.html"/>
+    <hyperlink ref="B23" r:id="rId21" display="socket_recvmsg" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-listen.html"/>
+    <hyperlink ref="B16" r:id="rId22" display="socket_select" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-read.html"/>
+    <hyperlink ref="B25" r:id="rId23" display="socket_send" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-recv.html"/>
+    <hyperlink ref="B26" r:id="rId24" display="socket_sendmsg" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-recvfrom.html"/>
+    <hyperlink ref="B27" r:id="rId25" display="socket_sendto" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-recvmsg.html"/>
+    <hyperlink ref="B41" r:id="rId26" display="socket_set_block" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-select.html"/>
+    <hyperlink ref="B42" r:id="rId27" display="socket_set_nonblock" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-send.html"/>
     <hyperlink ref="B5" r:id="rId28" display="socket_set_option" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-sendmsg.html"/>
     <hyperlink ref="B6" r:id="rId29" display="socket_setopt" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-sendto.html"/>
-    <hyperlink ref="B47" r:id="rId30" display="socket_shutdown" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-set-block.html"/>
-    <hyperlink ref="B32" r:id="rId31" display="socket_strerror" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-set-nonblock.html"/>
-    <hyperlink ref="B17" r:id="rId32" display="socket_write" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-set-option.html"/>
-    <hyperlink ref="B48" r:id="rId33" display="socket_wsaprotocol_info_export" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-setopt.html"/>
-    <hyperlink ref="B49" r:id="rId34" display="socket_wsaprotocol_info_import" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-shutdown.html"/>
-    <hyperlink ref="B50" r:id="rId35" display="socket_wsaprotocol_info_release" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-strerror.html"/>
+    <hyperlink ref="B43" r:id="rId30" display="socket_shutdown" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-set-block.html"/>
+    <hyperlink ref="B33" r:id="rId31" display="socket_strerror" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-set-nonblock.html"/>
+    <hyperlink ref="B18" r:id="rId32" display="socket_write" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-set-option.html"/>
+    <hyperlink ref="B44" r:id="rId33" display="socket_wsaprotocol_info_export" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-setopt.html"/>
+    <hyperlink ref="B45" r:id="rId34" display="socket_wsaprotocol_info_import" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-shutdown.html"/>
+    <hyperlink ref="B46" r:id="rId35" display="socket_wsaprotocol_info_release" tooltip="mk:@MSITStore:C:/Users/EDZ/Desktop/php74_zh(2020).chm::/res/function.socket-strerror.html"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -15936,16 +15946,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="85.875" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="70" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="70" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="71" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="71" customWidth="1"/>
     <col min="3" max="3" width="99.875" style="98" customWidth="1"/>
     <col min="4" max="4" width="16" style="98" customWidth="1"/>
-    <col min="5" max="5" width="24.125" style="68" customWidth="1"/>
-    <col min="6" max="6" width="76.625" style="68" customWidth="1"/>
-    <col min="7" max="7" width="36.875" style="68" customWidth="1"/>
-    <col min="8" max="8" width="47.5" style="68" customWidth="1"/>
-    <col min="9" max="9" width="30.5" style="70" customWidth="1"/>
-    <col min="10" max="16384" width="85.875" style="70"/>
+    <col min="5" max="5" width="24.125" style="69" customWidth="1"/>
+    <col min="6" max="6" width="76.625" style="69" customWidth="1"/>
+    <col min="7" max="7" width="36.875" style="69" customWidth="1"/>
+    <col min="8" max="8" width="47.5" style="69" customWidth="1"/>
+    <col min="9" max="9" width="30.5" style="71" customWidth="1"/>
+    <col min="10" max="16384" width="85.875" style="71"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="3:8">
@@ -15961,10 +15971,10 @@
       <c r="H1" s="88"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="71" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="99" t="s">
@@ -15977,7 +15987,7 @@
       <c r="F2" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="69" t="s">
         <v>68</v>
       </c>
       <c r="H2" s="100"/>
@@ -15995,7 +16005,7 @@
       <c r="F3" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="69" t="s">
         <v>73</v>
       </c>
       <c r="H3" s="100"/>
@@ -16093,10 +16103,10 @@
       <c r="H9" s="100"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="71" t="s">
         <v>97</v>
       </c>
       <c r="C10" s="99" t="s">
@@ -16336,7 +16346,7 @@
       <c r="H26" s="100"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="71" t="s">
         <v>148</v>
       </c>
       <c r="E27" s="100" t="s">
@@ -16366,7 +16376,7 @@
       <c r="H29" s="100"/>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="70" t="s">
+      <c r="B30" s="71" t="s">
         <v>155</v>
       </c>
       <c r="E30" s="100" t="s">
@@ -16414,7 +16424,7 @@
       <c r="H34" s="100"/>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="70" t="s">
+      <c r="B35" s="71" t="s">
         <v>166</v>
       </c>
       <c r="E35" s="100" t="s">
@@ -16462,7 +16472,7 @@
       <c r="H39" s="100"/>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="70" t="s">
+      <c r="B40" s="71" t="s">
         <v>177</v>
       </c>
       <c r="E40" s="100" t="s">
@@ -16546,7 +16556,7 @@
       <c r="H48" s="100"/>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="70" t="s">
+      <c r="B49" s="71" t="s">
         <v>196</v>
       </c>
       <c r="E49" s="100" t="s">
@@ -16850,9 +16860,9 @@
       <c r="H81" s="100"/>
     </row>
     <row r="82" spans="5:8">
-      <c r="E82" s="70"/>
-      <c r="F82" s="70"/>
-      <c r="H82" s="70"/>
+      <c r="E82" s="71"/>
+      <c r="F82" s="71"/>
+      <c r="H82" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -16964,17 +16974,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="31" customWidth="1"/>
-    <col min="2" max="3" width="9" style="31"/>
+    <col min="1" max="1" width="12.625" style="33" customWidth="1"/>
+    <col min="2" max="3" width="9" style="33"/>
     <col min="4" max="4" width="73" style="85" customWidth="1"/>
     <col min="5" max="5" width="14.625" style="85" customWidth="1"/>
     <col min="6" max="6" width="26.375" style="85" customWidth="1"/>
-    <col min="7" max="7" width="103.875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="68.875" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="6"/>
+    <col min="7" max="7" width="103.875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="68.875" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="70" customFormat="1" ht="18" spans="4:9">
+    <row r="1" s="71" customFormat="1" ht="18" spans="4:9">
       <c r="D1" s="86" t="s">
         <v>60</v>
       </c>
@@ -16985,15 +16995,15 @@
       <c r="G1" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="68"/>
+      <c r="H1" s="69"/>
       <c r="I1" s="88"/>
     </row>
     <row r="2" ht="17.25" spans="1:8">
       <c r="A2" s="89"/>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="90" t="s">
         <v>264</v>
       </c>
@@ -17009,22 +17019,22 @@
       <c r="H2" s="89"/>
     </row>
     <row r="3" ht="17.25" spans="1:8">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="71" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="71" t="s">
         <v>269</v>
       </c>
-      <c r="C3" s="70"/>
+      <c r="C3" s="71"/>
       <c r="G3" s="91" t="s">
         <v>270</v>
       </c>
       <c r="H3" s="89"/>
     </row>
     <row r="4" ht="17.25" spans="1:8">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
       <c r="D4" s="90" t="s">
         <v>271</v>
       </c>
@@ -17040,9 +17050,9 @@
       <c r="H4" s="89"/>
     </row>
     <row r="5" ht="17.25" spans="1:8">
-      <c r="A5" s="70"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="90" t="s">
         <v>274</v>
       </c>
@@ -17058,11 +17068,11 @@
       <c r="H5" s="89"/>
     </row>
     <row r="6" ht="17.25" spans="1:8">
-      <c r="A6" s="70"/>
-      <c r="B6" s="70" t="s">
+      <c r="A6" s="71"/>
+      <c r="B6" s="71" t="s">
         <v>278</v>
       </c>
-      <c r="C6" s="70"/>
+      <c r="C6" s="71"/>
       <c r="D6" s="90" t="s">
         <v>279</v>
       </c>
@@ -17078,9 +17088,9 @@
       <c r="H6" s="89"/>
     </row>
     <row r="7" ht="17.25" spans="1:8">
-      <c r="A7" s="70"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
       <c r="D7" s="90" t="s">
         <v>282</v>
       </c>
@@ -17096,9 +17106,9 @@
       <c r="H7" s="89"/>
     </row>
     <row r="8" ht="17.25" spans="1:8">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
       <c r="D8" s="90" t="s">
         <v>285</v>
       </c>
@@ -17114,9 +17124,9 @@
       <c r="H8" s="89"/>
     </row>
     <row r="9" ht="17.25" spans="1:8">
-      <c r="A9" s="70"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
       <c r="D9" s="90" t="s">
         <v>288</v>
       </c>
@@ -17132,7 +17142,7 @@
       <c r="H9" s="89"/>
     </row>
     <row r="10" ht="17.25" spans="1:8">
-      <c r="A10" s="70"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="92" t="s">
         <v>292</v>
       </c>
@@ -17151,9 +17161,9 @@
       <c r="H10" s="89"/>
     </row>
     <row r="11" ht="17.25" spans="1:8">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
       <c r="D11" s="93" t="s">
         <v>297</v>
       </c>
@@ -17169,9 +17179,9 @@
       <c r="H11" s="89"/>
     </row>
     <row r="12" ht="17.25" spans="1:8">
-      <c r="A12" s="70"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="93" t="s">
         <v>300</v>
       </c>
@@ -17187,9 +17197,9 @@
       <c r="H12" s="89"/>
     </row>
     <row r="13" ht="17.25" spans="1:8">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
+      <c r="A13" s="71"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
       <c r="D13" s="90" t="s">
         <v>303</v>
       </c>
@@ -17205,9 +17215,9 @@
       <c r="H13" s="89"/>
     </row>
     <row r="14" ht="17.25" spans="1:8">
-      <c r="A14" s="70"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
+      <c r="A14" s="71"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
       <c r="D14" s="93" t="s">
         <v>307</v>
       </c>
@@ -17223,9 +17233,9 @@
       <c r="H14" s="89"/>
     </row>
     <row r="15" ht="17.25" spans="1:8">
-      <c r="A15" s="70"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
       <c r="D15" s="90" t="s">
         <v>310</v>
       </c>
@@ -17241,9 +17251,9 @@
       <c r="H15" s="89"/>
     </row>
     <row r="16" ht="17.25" spans="1:8">
-      <c r="A16" s="70"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="90" t="s">
         <v>313</v>
       </c>
@@ -17259,8 +17269,8 @@
       <c r="H16" s="89"/>
     </row>
     <row r="17" ht="17.25" spans="1:8">
-      <c r="A17" s="70"/>
-      <c r="B17" s="70"/>
+      <c r="A17" s="71"/>
+      <c r="B17" s="71"/>
       <c r="C17" s="92" t="s">
         <v>316</v>
       </c>
@@ -17279,8 +17289,8 @@
       <c r="H17" s="89"/>
     </row>
     <row r="18" ht="17.25" spans="1:8">
-      <c r="A18" s="70"/>
-      <c r="B18" s="70"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="92"/>
       <c r="D18" s="93" t="s">
         <v>321</v>
@@ -17297,8 +17307,8 @@
       <c r="H18" s="89"/>
     </row>
     <row r="19" ht="17.25" spans="1:8">
-      <c r="A19" s="70"/>
-      <c r="B19" s="70"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="71"/>
       <c r="C19" s="92"/>
       <c r="D19" s="90" t="s">
         <v>323</v>
@@ -17315,11 +17325,11 @@
       <c r="H19" s="89"/>
     </row>
     <row r="20" ht="17.25" spans="1:8">
-      <c r="A20" s="70"/>
-      <c r="B20" s="70" t="s">
+      <c r="A20" s="71"/>
+      <c r="B20" s="71" t="s">
         <v>326</v>
       </c>
-      <c r="C20" s="70"/>
+      <c r="C20" s="71"/>
       <c r="D20" s="90" t="s">
         <v>327</v>
       </c>
@@ -17335,9 +17345,9 @@
       <c r="H20" s="89"/>
     </row>
     <row r="21" ht="17.25" spans="1:8">
-      <c r="A21" s="70"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
       <c r="D21" s="90" t="s">
         <v>330</v>
       </c>
@@ -17353,9 +17363,9 @@
       <c r="H21" s="89"/>
     </row>
     <row r="22" ht="17.25" spans="1:8">
-      <c r="A22" s="70"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
       <c r="D22" s="90" t="s">
         <v>333</v>
       </c>
@@ -17371,9 +17381,9 @@
       <c r="H22" s="89"/>
     </row>
     <row r="23" ht="17.25" spans="1:8">
-      <c r="A23" s="70"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
       <c r="D23" s="90" t="s">
         <v>337</v>
       </c>
@@ -17389,9 +17399,9 @@
       <c r="H23" s="89"/>
     </row>
     <row r="24" ht="17.25" spans="1:8">
-      <c r="A24" s="70"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70" t="s">
+      <c r="A24" s="71"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71" t="s">
         <v>340</v>
       </c>
       <c r="D24" s="90" t="s">
@@ -17409,9 +17419,9 @@
       <c r="H24" s="89"/>
     </row>
     <row r="25" ht="17.25" spans="1:8">
-      <c r="A25" s="70"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
+      <c r="A25" s="71"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
       <c r="D25" s="90" t="s">
         <v>344</v>
       </c>
@@ -17427,9 +17437,9 @@
       <c r="H25" s="89"/>
     </row>
     <row r="26" ht="17.25" spans="1:8">
-      <c r="A26" s="70"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
+      <c r="A26" s="71"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
       <c r="D26" s="90" t="s">
         <v>348</v>
       </c>
@@ -17445,9 +17455,9 @@
       <c r="H26" s="89"/>
     </row>
     <row r="27" ht="17.25" spans="1:8">
-      <c r="A27" s="70"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="71"/>
       <c r="D27" s="90" t="s">
         <v>351</v>
       </c>
@@ -17463,18 +17473,18 @@
       <c r="H27" s="89"/>
     </row>
     <row r="28" ht="17.25" spans="1:8">
-      <c r="A28" s="70"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
+      <c r="A28" s="71"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
       <c r="G28" s="91" t="s">
         <v>354</v>
       </c>
       <c r="H28" s="89"/>
     </row>
     <row r="29" ht="17.25" spans="1:8">
-      <c r="A29" s="70"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
+      <c r="A29" s="71"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="71"/>
       <c r="D29" s="90" t="s">
         <v>355</v>
       </c>
@@ -17490,9 +17500,9 @@
       <c r="H29" s="89"/>
     </row>
     <row r="30" ht="17.25" spans="1:8">
-      <c r="A30" s="70"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
+      <c r="A30" s="71"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
       <c r="D30" s="90" t="s">
         <v>358</v>
       </c>
@@ -17508,13 +17518,13 @@
       <c r="H30" s="89"/>
     </row>
     <row r="31" ht="17.25" spans="1:8">
-      <c r="A31" s="70" t="s">
+      <c r="A31" s="71" t="s">
         <v>361</v>
       </c>
-      <c r="B31" s="70" t="s">
+      <c r="B31" s="71" t="s">
         <v>362</v>
       </c>
-      <c r="C31" s="70"/>
+      <c r="C31" s="71"/>
       <c r="D31" s="90" t="s">
         <v>363</v>
       </c>
@@ -17530,11 +17540,11 @@
       <c r="H31" s="89"/>
     </row>
     <row r="32" ht="17.25" spans="1:8">
-      <c r="A32" s="70"/>
-      <c r="B32" s="70" t="s">
+      <c r="A32" s="71"/>
+      <c r="B32" s="71" t="s">
         <v>366</v>
       </c>
-      <c r="C32" s="70"/>
+      <c r="C32" s="71"/>
       <c r="D32" s="90" t="s">
         <v>367</v>
       </c>
@@ -17550,9 +17560,9 @@
       <c r="H32" s="89"/>
     </row>
     <row r="33" ht="17.25" spans="1:8">
-      <c r="A33" s="70"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
+      <c r="A33" s="71"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
       <c r="D33" s="90" t="s">
         <v>370</v>
       </c>
@@ -17568,9 +17578,9 @@
       <c r="H33" s="89"/>
     </row>
     <row r="34" ht="17.25" spans="1:8">
-      <c r="A34" s="70"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
+      <c r="A34" s="71"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
       <c r="D34" s="90" t="s">
         <v>373</v>
       </c>
@@ -17586,9 +17596,9 @@
       <c r="H34" s="89"/>
     </row>
     <row r="35" ht="17.25" spans="1:8">
-      <c r="A35" s="70"/>
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
+      <c r="A35" s="71"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
       <c r="D35" s="90" t="s">
         <v>376</v>
       </c>
@@ -17604,11 +17614,11 @@
       <c r="H35" s="89"/>
     </row>
     <row r="36" ht="17.25" spans="1:8">
-      <c r="A36" s="70"/>
-      <c r="B36" s="70" t="s">
+      <c r="A36" s="71"/>
+      <c r="B36" s="71" t="s">
         <v>378</v>
       </c>
-      <c r="C36" s="70"/>
+      <c r="C36" s="71"/>
       <c r="D36" s="90" t="s">
         <v>379</v>
       </c>
@@ -17624,29 +17634,29 @@
       <c r="H36" s="89"/>
     </row>
     <row r="37" ht="17.25" spans="1:8">
-      <c r="A37" s="70"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
+      <c r="A37" s="71"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
       <c r="G37" s="91" t="s">
         <v>382</v>
       </c>
       <c r="H37" s="89"/>
     </row>
     <row r="38" ht="17.25" spans="1:8">
-      <c r="A38" s="70"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="70"/>
+      <c r="A38" s="71"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="71"/>
       <c r="G38" s="91" t="s">
         <v>383</v>
       </c>
       <c r="H38" s="89"/>
     </row>
     <row r="39" ht="17.25" spans="1:8">
-      <c r="A39" s="70"/>
-      <c r="B39" s="70" t="s">
+      <c r="A39" s="71"/>
+      <c r="B39" s="71" t="s">
         <v>384</v>
       </c>
-      <c r="C39" s="70" t="s">
+      <c r="C39" s="71" t="s">
         <v>385</v>
       </c>
       <c r="D39" s="90" t="s">
@@ -17664,9 +17674,9 @@
       <c r="H39" s="89"/>
     </row>
     <row r="40" ht="17.25" spans="1:8">
-      <c r="A40" s="70"/>
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
+      <c r="A40" s="71"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="71"/>
       <c r="D40" s="90" t="s">
         <v>389</v>
       </c>
@@ -17682,9 +17692,9 @@
       <c r="H40" s="89"/>
     </row>
     <row r="41" ht="17.25" spans="1:8">
-      <c r="A41" s="70"/>
-      <c r="B41" s="70"/>
-      <c r="C41" s="70"/>
+      <c r="A41" s="71"/>
+      <c r="B41" s="71"/>
+      <c r="C41" s="71"/>
       <c r="D41" s="90" t="s">
         <v>392</v>
       </c>
@@ -17700,9 +17710,9 @@
       <c r="H41" s="89"/>
     </row>
     <row r="42" ht="17.25" spans="1:8">
-      <c r="A42" s="70"/>
-      <c r="B42" s="70"/>
-      <c r="C42" s="70" t="s">
+      <c r="A42" s="71"/>
+      <c r="B42" s="71"/>
+      <c r="C42" s="71" t="s">
         <v>395</v>
       </c>
       <c r="D42" s="90" t="s">
@@ -17720,9 +17730,9 @@
       <c r="H42" s="89"/>
     </row>
     <row r="43" ht="17.25" spans="1:8">
-      <c r="A43" s="70"/>
-      <c r="B43" s="70"/>
-      <c r="C43" s="70"/>
+      <c r="A43" s="71"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="71"/>
       <c r="D43" s="90" t="s">
         <v>399</v>
       </c>
@@ -17738,9 +17748,9 @@
       <c r="H43" s="89"/>
     </row>
     <row r="44" ht="17.25" spans="1:8">
-      <c r="A44" s="70"/>
-      <c r="B44" s="70"/>
-      <c r="C44" s="70"/>
+      <c r="A44" s="71"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
       <c r="D44" s="90" t="s">
         <v>402</v>
       </c>
@@ -17756,9 +17766,9 @@
       <c r="H44" s="89"/>
     </row>
     <row r="45" ht="17.25" spans="1:8">
-      <c r="A45" s="70"/>
-      <c r="B45" s="70"/>
-      <c r="C45" s="70"/>
+      <c r="A45" s="71"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="71"/>
       <c r="D45" s="90" t="s">
         <v>405</v>
       </c>
@@ -17774,9 +17784,9 @@
       <c r="H45" s="89"/>
     </row>
     <row r="46" ht="17.25" spans="1:8">
-      <c r="A46" s="70"/>
-      <c r="B46" s="70"/>
-      <c r="C46" s="70"/>
+      <c r="A46" s="71"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="71"/>
       <c r="D46" s="90" t="s">
         <v>408</v>
       </c>
@@ -17793,10 +17803,10 @@
     </row>
     <row r="47" ht="17.25" spans="1:8">
       <c r="A47" s="89"/>
-      <c r="B47" s="70" t="s">
+      <c r="B47" s="71" t="s">
         <v>411</v>
       </c>
-      <c r="C47" s="70"/>
+      <c r="C47" s="71"/>
       <c r="G47" s="91" t="s">
         <v>412</v>
       </c>
@@ -17804,8 +17814,8 @@
     </row>
     <row r="48" ht="17.25" spans="1:8">
       <c r="A48" s="89"/>
-      <c r="B48" s="70"/>
-      <c r="C48" s="70"/>
+      <c r="B48" s="71"/>
+      <c r="C48" s="71"/>
       <c r="G48" s="91" t="s">
         <v>413</v>
       </c>
@@ -17813,8 +17823,8 @@
     </row>
     <row r="49" ht="17.25" spans="1:8">
       <c r="A49" s="89"/>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70"/>
+      <c r="B49" s="71"/>
+      <c r="C49" s="71"/>
       <c r="G49" s="91" t="s">
         <v>414</v>
       </c>
@@ -17822,8 +17832,8 @@
     </row>
     <row r="50" ht="17.25" spans="1:8">
       <c r="A50" s="89"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
+      <c r="B50" s="71"/>
+      <c r="C50" s="71"/>
       <c r="G50" s="91" t="s">
         <v>415</v>
       </c>
@@ -17831,8 +17841,8 @@
     </row>
     <row r="51" ht="17.25" spans="1:8">
       <c r="A51" s="89"/>
-      <c r="B51" s="70"/>
-      <c r="C51" s="70"/>
+      <c r="B51" s="71"/>
+      <c r="C51" s="71"/>
       <c r="G51" s="91" t="s">
         <v>416</v>
       </c>
@@ -17840,8 +17850,8 @@
     </row>
     <row r="52" ht="17.25" spans="1:8">
       <c r="A52" s="89"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="70"/>
+      <c r="B52" s="71"/>
+      <c r="C52" s="71"/>
       <c r="G52" s="91" t="s">
         <v>417</v>
       </c>
@@ -17849,8 +17859,8 @@
     </row>
     <row r="53" ht="17.25" spans="1:8">
       <c r="A53" s="89"/>
-      <c r="B53" s="70"/>
-      <c r="C53" s="70"/>
+      <c r="B53" s="71"/>
+      <c r="C53" s="71"/>
       <c r="G53" s="91" t="s">
         <v>418</v>
       </c>
@@ -17858,8 +17868,8 @@
     </row>
     <row r="54" ht="17.25" spans="1:8">
       <c r="A54" s="89"/>
-      <c r="B54" s="70"/>
-      <c r="C54" s="70"/>
+      <c r="B54" s="71"/>
+      <c r="C54" s="71"/>
       <c r="G54" s="91" t="s">
         <v>419</v>
       </c>
@@ -17867,23 +17877,23 @@
     </row>
     <row r="55" ht="17.25" spans="1:8">
       <c r="A55" s="89"/>
-      <c r="B55" s="70" t="s">
+      <c r="B55" s="71" t="s">
         <v>420</v>
       </c>
-      <c r="C55" s="70"/>
+      <c r="C55" s="71"/>
       <c r="G55" s="91" t="s">
         <v>421</v>
       </c>
       <c r="H55" s="89"/>
     </row>
     <row r="56" ht="17.25" spans="1:8">
-      <c r="A56" s="70" t="s">
+      <c r="A56" s="71" t="s">
         <v>422</v>
       </c>
-      <c r="B56" s="70" t="s">
+      <c r="B56" s="71" t="s">
         <v>423</v>
       </c>
-      <c r="C56" s="70"/>
+      <c r="C56" s="71"/>
       <c r="D56" s="90" t="s">
         <v>424</v>
       </c>
@@ -17899,9 +17909,9 @@
       <c r="H56" s="89"/>
     </row>
     <row r="57" ht="17.25" spans="1:8">
-      <c r="A57" s="70"/>
-      <c r="B57" s="70"/>
-      <c r="C57" s="70"/>
+      <c r="A57" s="71"/>
+      <c r="B57" s="71"/>
+      <c r="C57" s="71"/>
       <c r="D57" s="90" t="s">
         <v>428</v>
       </c>
@@ -17917,9 +17927,9 @@
       <c r="H57" s="89"/>
     </row>
     <row r="58" ht="17.25" spans="1:8">
-      <c r="A58" s="70"/>
-      <c r="B58" s="70"/>
-      <c r="C58" s="70"/>
+      <c r="A58" s="71"/>
+      <c r="B58" s="71"/>
+      <c r="C58" s="71"/>
       <c r="D58" s="90" t="s">
         <v>431</v>
       </c>
@@ -17935,9 +17945,9 @@
       <c r="H58" s="89"/>
     </row>
     <row r="59" ht="17.25" spans="1:8">
-      <c r="A59" s="70"/>
-      <c r="B59" s="70"/>
-      <c r="C59" s="70"/>
+      <c r="A59" s="71"/>
+      <c r="B59" s="71"/>
+      <c r="C59" s="71"/>
       <c r="D59" s="90" t="s">
         <v>434</v>
       </c>
@@ -17953,9 +17963,9 @@
       <c r="H59" s="89"/>
     </row>
     <row r="60" ht="17.25" spans="1:8">
-      <c r="A60" s="70"/>
-      <c r="B60" s="70"/>
-      <c r="C60" s="70"/>
+      <c r="A60" s="71"/>
+      <c r="B60" s="71"/>
+      <c r="C60" s="71"/>
       <c r="D60" s="90" t="s">
         <v>437</v>
       </c>
@@ -17971,7 +17981,7 @@
       <c r="H60" s="89"/>
     </row>
     <row r="61" ht="17.25" spans="1:8">
-      <c r="A61" s="70"/>
+      <c r="A61" s="71"/>
       <c r="B61" s="92" t="s">
         <v>440</v>
       </c>
@@ -17991,7 +18001,7 @@
       <c r="H61" s="89"/>
     </row>
     <row r="62" ht="17.25" spans="1:8">
-      <c r="A62" s="70"/>
+      <c r="A62" s="71"/>
       <c r="B62" s="92"/>
       <c r="C62" s="92"/>
       <c r="D62" s="90" t="s">
@@ -18009,7 +18019,7 @@
       <c r="H62" s="89"/>
     </row>
     <row r="63" ht="17.25" spans="1:8">
-      <c r="A63" s="70"/>
+      <c r="A63" s="71"/>
       <c r="B63" s="92"/>
       <c r="C63" s="92"/>
       <c r="D63" s="90" t="s">
@@ -18027,11 +18037,11 @@
       <c r="H63" s="89"/>
     </row>
     <row r="64" ht="17.25" spans="1:8">
-      <c r="A64" s="70"/>
+      <c r="A64" s="71"/>
       <c r="B64" s="92" t="s">
         <v>450</v>
       </c>
-      <c r="C64" s="70"/>
+      <c r="C64" s="71"/>
       <c r="D64" s="90" t="s">
         <v>451</v>
       </c>
@@ -18047,9 +18057,9 @@
       <c r="H64" s="89"/>
     </row>
     <row r="65" ht="17.25" spans="1:8">
-      <c r="A65" s="70"/>
-      <c r="B65" s="70"/>
-      <c r="C65" s="70"/>
+      <c r="A65" s="71"/>
+      <c r="B65" s="71"/>
+      <c r="C65" s="71"/>
       <c r="D65" s="90" t="s">
         <v>454</v>
       </c>
@@ -18065,9 +18075,9 @@
       <c r="H65" s="89"/>
     </row>
     <row r="66" ht="17.25" spans="1:8">
-      <c r="A66" s="70"/>
-      <c r="B66" s="70"/>
-      <c r="C66" s="70"/>
+      <c r="A66" s="71"/>
+      <c r="B66" s="71"/>
+      <c r="C66" s="71"/>
       <c r="D66" s="90" t="s">
         <v>457</v>
       </c>
@@ -18083,9 +18093,9 @@
       <c r="H66" s="89"/>
     </row>
     <row r="67" ht="17.25" spans="1:8">
-      <c r="A67" s="70"/>
-      <c r="B67" s="70"/>
-      <c r="C67" s="70"/>
+      <c r="A67" s="71"/>
+      <c r="B67" s="71"/>
+      <c r="C67" s="71"/>
       <c r="D67" s="90" t="s">
         <v>460</v>
       </c>
@@ -18101,9 +18111,9 @@
       <c r="H67" s="89"/>
     </row>
     <row r="68" ht="17.25" spans="1:8">
-      <c r="A68" s="70"/>
-      <c r="B68" s="70"/>
-      <c r="C68" s="70"/>
+      <c r="A68" s="71"/>
+      <c r="B68" s="71"/>
+      <c r="C68" s="71"/>
       <c r="D68" s="90" t="s">
         <v>464</v>
       </c>
@@ -18119,9 +18129,9 @@
       <c r="H68" s="89"/>
     </row>
     <row r="69" ht="17.25" spans="1:8">
-      <c r="A69" s="70"/>
-      <c r="B69" s="70"/>
-      <c r="C69" s="70"/>
+      <c r="A69" s="71"/>
+      <c r="B69" s="71"/>
+      <c r="C69" s="71"/>
       <c r="D69" s="90" t="s">
         <v>466</v>
       </c>
@@ -18137,20 +18147,20 @@
       <c r="H69" s="89"/>
     </row>
     <row r="70" ht="17.25" spans="1:8">
-      <c r="A70" s="70"/>
-      <c r="B70" s="70"/>
-      <c r="C70" s="70"/>
+      <c r="A70" s="71"/>
+      <c r="B70" s="71"/>
+      <c r="C70" s="71"/>
       <c r="G70" s="91" t="s">
         <v>468</v>
       </c>
       <c r="H70" s="89"/>
     </row>
     <row r="71" ht="17.25" spans="1:8">
-      <c r="A71" s="70"/>
-      <c r="B71" s="70" t="s">
+      <c r="A71" s="71"/>
+      <c r="B71" s="71" t="s">
         <v>469</v>
       </c>
-      <c r="C71" s="70"/>
+      <c r="C71" s="71"/>
       <c r="D71" s="90" t="s">
         <v>470</v>
       </c>
@@ -18166,9 +18176,9 @@
       <c r="H71" s="89"/>
     </row>
     <row r="72" ht="17.25" spans="1:8">
-      <c r="A72" s="70"/>
-      <c r="B72" s="70"/>
-      <c r="C72" s="70"/>
+      <c r="A72" s="71"/>
+      <c r="B72" s="71"/>
+      <c r="C72" s="71"/>
       <c r="D72" s="90" t="s">
         <v>473</v>
       </c>
@@ -18184,9 +18194,9 @@
       <c r="H72" s="89"/>
     </row>
     <row r="73" ht="17.25" spans="1:8">
-      <c r="A73" s="70"/>
-      <c r="B73" s="70"/>
-      <c r="C73" s="70"/>
+      <c r="A73" s="71"/>
+      <c r="B73" s="71"/>
+      <c r="C73" s="71"/>
       <c r="D73" s="90" t="s">
         <v>476</v>
       </c>
@@ -18202,9 +18212,9 @@
       <c r="H73" s="89"/>
     </row>
     <row r="74" ht="17.25" spans="1:8">
-      <c r="A74" s="70"/>
-      <c r="B74" s="70"/>
-      <c r="C74" s="70"/>
+      <c r="A74" s="71"/>
+      <c r="B74" s="71"/>
+      <c r="C74" s="71"/>
       <c r="D74" s="90" t="s">
         <v>479</v>
       </c>
@@ -18220,9 +18230,9 @@
       <c r="H74" s="89"/>
     </row>
     <row r="75" ht="17.25" spans="1:8">
-      <c r="A75" s="70"/>
-      <c r="B75" s="70"/>
-      <c r="C75" s="70"/>
+      <c r="A75" s="71"/>
+      <c r="B75" s="71"/>
+      <c r="C75" s="71"/>
       <c r="D75" s="90" t="s">
         <v>482</v>
       </c>
@@ -18238,92 +18248,92 @@
       <c r="H75" s="89"/>
     </row>
     <row r="76" ht="17.25" spans="1:8">
-      <c r="A76" s="70" t="s">
+      <c r="A76" s="71" t="s">
         <v>485</v>
       </c>
-      <c r="B76" s="70"/>
-      <c r="C76" s="70"/>
+      <c r="B76" s="71"/>
+      <c r="C76" s="71"/>
       <c r="G76" s="91" t="s">
         <v>486</v>
       </c>
       <c r="H76" s="89"/>
     </row>
     <row r="77" ht="17.25" spans="1:8">
-      <c r="A77" s="70"/>
-      <c r="B77" s="70"/>
-      <c r="C77" s="70"/>
+      <c r="A77" s="71"/>
+      <c r="B77" s="71"/>
+      <c r="C77" s="71"/>
       <c r="G77" s="91" t="s">
         <v>487</v>
       </c>
       <c r="H77" s="89"/>
     </row>
     <row r="78" ht="17.25" spans="1:8">
-      <c r="A78" s="70"/>
-      <c r="B78" s="70"/>
-      <c r="C78" s="70"/>
+      <c r="A78" s="71"/>
+      <c r="B78" s="71"/>
+      <c r="C78" s="71"/>
       <c r="G78" s="91" t="s">
         <v>488</v>
       </c>
       <c r="H78" s="89"/>
     </row>
     <row r="79" ht="17.25" spans="1:8">
-      <c r="A79" s="70"/>
-      <c r="B79" s="70"/>
-      <c r="C79" s="70"/>
+      <c r="A79" s="71"/>
+      <c r="B79" s="71"/>
+      <c r="C79" s="71"/>
       <c r="G79" s="91" t="s">
         <v>489</v>
       </c>
       <c r="H79" s="89"/>
     </row>
     <row r="80" ht="17.25" spans="1:8">
-      <c r="A80" s="70"/>
-      <c r="B80" s="70"/>
-      <c r="C80" s="70"/>
+      <c r="A80" s="71"/>
+      <c r="B80" s="71"/>
+      <c r="C80" s="71"/>
       <c r="G80" s="91" t="s">
         <v>490</v>
       </c>
       <c r="H80" s="89"/>
     </row>
     <row r="81" ht="17.25" spans="1:8">
-      <c r="A81" s="70"/>
-      <c r="B81" s="70"/>
-      <c r="C81" s="70"/>
+      <c r="A81" s="71"/>
+      <c r="B81" s="71"/>
+      <c r="C81" s="71"/>
       <c r="G81" s="91" t="s">
         <v>491</v>
       </c>
       <c r="H81" s="89"/>
     </row>
     <row r="82" ht="17.25" spans="1:8">
-      <c r="A82" s="70"/>
-      <c r="B82" s="70"/>
-      <c r="C82" s="70"/>
+      <c r="A82" s="71"/>
+      <c r="B82" s="71"/>
+      <c r="C82" s="71"/>
       <c r="G82" s="91" t="s">
         <v>492</v>
       </c>
       <c r="H82" s="89"/>
     </row>
     <row r="83" ht="17.25" spans="1:8">
-      <c r="A83" s="70"/>
-      <c r="B83" s="70"/>
-      <c r="C83" s="70"/>
+      <c r="A83" s="71"/>
+      <c r="B83" s="71"/>
+      <c r="C83" s="71"/>
       <c r="G83" s="91" t="s">
         <v>493</v>
       </c>
       <c r="H83" s="89"/>
     </row>
     <row r="84" ht="17.25" spans="1:8">
-      <c r="A84" s="70"/>
-      <c r="B84" s="70"/>
-      <c r="C84" s="70"/>
+      <c r="A84" s="71"/>
+      <c r="B84" s="71"/>
+      <c r="C84" s="71"/>
       <c r="G84" s="91" t="s">
         <v>494</v>
       </c>
       <c r="H84" s="89"/>
     </row>
     <row r="85" ht="17.25" spans="1:8">
-      <c r="A85" s="70"/>
-      <c r="B85" s="70"/>
-      <c r="C85" s="70"/>
+      <c r="A85" s="71"/>
+      <c r="B85" s="71"/>
+      <c r="C85" s="71"/>
       <c r="G85" s="91" t="s">
         <v>495</v>
       </c>
@@ -18333,107 +18343,107 @@
       <c r="A86" s="92" t="s">
         <v>496</v>
       </c>
-      <c r="B86" s="70"/>
-      <c r="C86" s="70"/>
+      <c r="B86" s="71"/>
+      <c r="C86" s="71"/>
       <c r="G86" s="91" t="s">
         <v>497</v>
       </c>
       <c r="H86" s="89"/>
     </row>
     <row r="87" ht="17.25" spans="1:8">
-      <c r="A87" s="70"/>
-      <c r="B87" s="70"/>
-      <c r="C87" s="70"/>
+      <c r="A87" s="71"/>
+      <c r="B87" s="71"/>
+      <c r="C87" s="71"/>
       <c r="G87" s="91" t="s">
         <v>498</v>
       </c>
       <c r="H87" s="89"/>
     </row>
     <row r="88" ht="17.25" spans="1:8">
-      <c r="A88" s="70"/>
-      <c r="B88" s="70"/>
-      <c r="C88" s="70"/>
+      <c r="A88" s="71"/>
+      <c r="B88" s="71"/>
+      <c r="C88" s="71"/>
       <c r="G88" s="91" t="s">
         <v>499</v>
       </c>
       <c r="H88" s="89"/>
     </row>
     <row r="89" ht="17.25" spans="1:8">
-      <c r="A89" s="70"/>
-      <c r="B89" s="70"/>
-      <c r="C89" s="70"/>
+      <c r="A89" s="71"/>
+      <c r="B89" s="71"/>
+      <c r="C89" s="71"/>
       <c r="G89" s="91" t="s">
         <v>500</v>
       </c>
       <c r="H89" s="89"/>
     </row>
     <row r="90" ht="17.25" spans="1:8">
-      <c r="A90" s="70"/>
-      <c r="B90" s="70"/>
-      <c r="C90" s="70"/>
+      <c r="A90" s="71"/>
+      <c r="B90" s="71"/>
+      <c r="C90" s="71"/>
       <c r="G90" s="91" t="s">
         <v>501</v>
       </c>
       <c r="H90" s="89"/>
     </row>
     <row r="91" ht="17.25" spans="1:8">
-      <c r="A91" s="70" t="s">
+      <c r="A91" s="71" t="s">
         <v>502</v>
       </c>
-      <c r="B91" s="70"/>
-      <c r="C91" s="70"/>
+      <c r="B91" s="71"/>
+      <c r="C91" s="71"/>
       <c r="G91" s="91" t="s">
         <v>503</v>
       </c>
       <c r="H91" s="89"/>
     </row>
     <row r="92" ht="17.25" spans="1:8">
-      <c r="A92" s="70"/>
-      <c r="B92" s="70"/>
-      <c r="C92" s="70"/>
+      <c r="A92" s="71"/>
+      <c r="B92" s="71"/>
+      <c r="C92" s="71"/>
       <c r="G92" s="91" t="s">
         <v>504</v>
       </c>
       <c r="H92" s="89"/>
     </row>
     <row r="93" ht="17.25" spans="1:8">
-      <c r="A93" s="70"/>
-      <c r="B93" s="70"/>
-      <c r="C93" s="70"/>
+      <c r="A93" s="71"/>
+      <c r="B93" s="71"/>
+      <c r="C93" s="71"/>
       <c r="G93" s="91" t="s">
         <v>505</v>
       </c>
       <c r="H93" s="89"/>
     </row>
     <row r="94" ht="17.25" spans="1:8">
-      <c r="A94" s="70"/>
-      <c r="B94" s="70"/>
-      <c r="C94" s="70"/>
+      <c r="A94" s="71"/>
+      <c r="B94" s="71"/>
+      <c r="C94" s="71"/>
       <c r="G94" s="91" t="s">
         <v>506</v>
       </c>
       <c r="H94" s="89"/>
     </row>
     <row r="95" ht="17.25" spans="1:8">
-      <c r="A95" s="70"/>
-      <c r="B95" s="70"/>
-      <c r="C95" s="70"/>
+      <c r="A95" s="71"/>
+      <c r="B95" s="71"/>
+      <c r="C95" s="71"/>
       <c r="G95" s="91" t="s">
         <v>507</v>
       </c>
       <c r="H95" s="89"/>
     </row>
     <row r="96" ht="17.25" spans="1:8">
-      <c r="A96" s="70"/>
-      <c r="B96" s="70"/>
-      <c r="C96" s="70"/>
+      <c r="A96" s="71"/>
+      <c r="B96" s="71"/>
+      <c r="C96" s="71"/>
       <c r="G96" s="91" t="s">
         <v>508</v>
       </c>
       <c r="H96" s="89"/>
     </row>
     <row r="97" ht="17.25" spans="3:7">
-      <c r="C97" s="70"/>
+      <c r="C97" s="71"/>
       <c r="G97" s="91" t="s">
         <v>509</v>
       </c>
@@ -18635,886 +18645,886 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="67" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="67" customWidth="1"/>
-    <col min="3" max="3" width="22.75" style="67" customWidth="1"/>
-    <col min="4" max="4" width="39.125" style="67" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="67"/>
+    <col min="1" max="1" width="5.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" spans="1:4">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>516</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="69" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="70" t="s">
         <v>517</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="69" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:4">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69" t="s">
         <v>519</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="69" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:4">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69" t="s">
         <v>521</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="69" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="1:4">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>523</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69" t="s">
+      <c r="B4" s="69"/>
+      <c r="C4" s="70" t="s">
         <v>524</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="69" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="1:4">
-      <c r="A5" s="68"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="69" t="s">
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="70" t="s">
         <v>526</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="69" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:4">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="69" t="s">
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="70" t="s">
         <v>528</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="69" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:4">
-      <c r="A7" s="68"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="69" t="s">
+      <c r="A7" s="69"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="70" t="s">
         <v>530</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="69" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="8" ht="17.25" spans="1:4">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="69" t="s">
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="70" t="s">
         <v>532</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="69" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="9" ht="17.25" spans="1:4">
-      <c r="A9" s="68"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="69" t="s">
+      <c r="A9" s="69"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="70" t="s">
         <v>534</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="69" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:4">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="69" t="s">
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="70" t="s">
         <v>536</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="69" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="1:4">
-      <c r="A11" s="68"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="69" t="s">
+      <c r="A11" s="69"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="70" t="s">
         <v>538</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="69" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:4">
-      <c r="A12" s="68"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="69" t="s">
+      <c r="A12" s="69"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="70" t="s">
         <v>540</v>
       </c>
-      <c r="D12" s="68" t="s">
+      <c r="D12" s="69" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="1:4">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="69" t="s">
         <v>542</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="69" t="s">
+      <c r="B13" s="69"/>
+      <c r="C13" s="70" t="s">
         <v>543</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="69" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="14" ht="17.25" spans="1:4">
-      <c r="A14" s="68"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="69" t="s">
+      <c r="A14" s="69"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="70" t="s">
         <v>545</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="69" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="15" ht="17.25" spans="1:4">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="69" t="s">
         <v>547</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="69" t="s">
+      <c r="B15" s="69"/>
+      <c r="C15" s="70" t="s">
         <v>548</v>
       </c>
-      <c r="D15" s="68" t="s">
+      <c r="D15" s="69" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="16" ht="17.25" spans="1:4">
-      <c r="A16" s="68"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="69" t="s">
+      <c r="A16" s="69"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="70" t="s">
         <v>550</v>
       </c>
-      <c r="D16" s="68" t="s">
+      <c r="D16" s="69" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="1:4">
-      <c r="A17" s="68"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="69" t="s">
+      <c r="A17" s="69"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="70" t="s">
         <v>552</v>
       </c>
-      <c r="D17" s="68" t="s">
+      <c r="D17" s="69" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="18" ht="17.25" spans="1:4">
-      <c r="A18" s="68"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="69" t="s">
+      <c r="A18" s="69"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="70" t="s">
         <v>554</v>
       </c>
-      <c r="D18" s="68" t="s">
+      <c r="D18" s="69" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="1:4">
-      <c r="A19" s="68"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="69" t="s">
+      <c r="A19" s="69"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="70" t="s">
         <v>556</v>
       </c>
-      <c r="D19" s="68" t="s">
+      <c r="D19" s="69" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="20" ht="17.25" spans="1:4">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="71" t="s">
         <v>558</v>
       </c>
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="69" t="s">
         <v>559</v>
       </c>
-      <c r="C20" s="68" t="s">
+      <c r="C20" s="69" t="s">
         <v>560</v>
       </c>
-      <c r="D20" s="68" t="s">
+      <c r="D20" s="69" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="1:4">
-      <c r="A21" s="70"/>
-      <c r="B21" s="68" t="s">
+      <c r="A21" s="71"/>
+      <c r="B21" s="69" t="s">
         <v>562</v>
       </c>
-      <c r="C21" s="69" t="s">
+      <c r="C21" s="70" t="s">
         <v>563</v>
       </c>
-      <c r="D21" s="68" t="s">
+      <c r="D21" s="69" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="22" ht="17.25" spans="1:4">
-      <c r="A22" s="70"/>
-      <c r="B22" s="68" t="s">
+      <c r="A22" s="71"/>
+      <c r="B22" s="69" t="s">
         <v>565</v>
       </c>
-      <c r="C22" s="69" t="s">
+      <c r="C22" s="70" t="s">
         <v>566</v>
       </c>
-      <c r="D22" s="68" t="s">
+      <c r="D22" s="69" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="23" ht="17.25" spans="1:4">
-      <c r="A23" s="70"/>
-      <c r="B23" s="68" t="s">
+      <c r="A23" s="71"/>
+      <c r="B23" s="69" t="s">
         <v>568</v>
       </c>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="69" t="s">
         <v>569</v>
       </c>
-      <c r="D23" s="68" t="s">
+      <c r="D23" s="69" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="24" ht="17.25" spans="1:4">
-      <c r="A24" s="70"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="69" t="s">
+      <c r="A24" s="71"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="70" t="s">
         <v>571</v>
       </c>
-      <c r="D24" s="68" t="s">
+      <c r="D24" s="69" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="25" ht="17.25" spans="1:4">
-      <c r="A25" s="70"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69" t="s">
+      <c r="A25" s="71"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="70" t="s">
         <v>571</v>
       </c>
-      <c r="D25" s="68" t="s">
+      <c r="D25" s="69" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="26" ht="17.25" spans="1:4">
-      <c r="A26" s="70"/>
-      <c r="B26" s="68" t="s">
+      <c r="A26" s="71"/>
+      <c r="B26" s="69" t="s">
         <v>340</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="70" t="s">
         <v>573</v>
       </c>
-      <c r="D26" s="68" t="s">
+      <c r="D26" s="69" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="27" ht="17.25" spans="1:4">
-      <c r="A27" s="70"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="69" t="s">
+      <c r="A27" s="71"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="70" t="s">
         <v>575</v>
       </c>
-      <c r="D27" s="68" t="s">
+      <c r="D27" s="69" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="28" ht="17.25" spans="1:4">
-      <c r="A28" s="70"/>
-      <c r="B28" s="68" t="s">
+      <c r="A28" s="71"/>
+      <c r="B28" s="69" t="s">
         <v>577</v>
       </c>
-      <c r="C28" s="69" t="s">
+      <c r="C28" s="70" t="s">
         <v>578</v>
       </c>
-      <c r="D28" s="68" t="s">
+      <c r="D28" s="69" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="1:4">
-      <c r="A29" s="70"/>
-      <c r="B29" s="68" t="s">
+      <c r="A29" s="71"/>
+      <c r="B29" s="69" t="s">
         <v>580</v>
       </c>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="69" t="s">
         <v>581</v>
       </c>
-      <c r="D29" s="68" t="s">
+      <c r="D29" s="69" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="30" ht="17.25" spans="1:4">
-      <c r="A30" s="70"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="69" t="s">
+      <c r="A30" s="71"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="70" t="s">
         <v>583</v>
       </c>
-      <c r="D30" s="68" t="s">
+      <c r="D30" s="69" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="31" ht="17.25" spans="1:4">
-      <c r="A31" s="70"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68" t="s">
+      <c r="A31" s="71"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69" t="s">
         <v>585</v>
       </c>
-      <c r="D31" s="68" t="s">
+      <c r="D31" s="69" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="32" ht="17.25" spans="1:4">
-      <c r="A32" s="70"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="69" t="s">
+      <c r="A32" s="71"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="70" t="s">
         <v>587</v>
       </c>
-      <c r="D32" s="68" t="s">
+      <c r="D32" s="69" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="1:4">
-      <c r="A33" s="70"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68" t="s">
+      <c r="A33" s="71"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69" t="s">
         <v>589</v>
       </c>
-      <c r="D33" s="68" t="s">
+      <c r="D33" s="69" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="34" ht="17.25" spans="1:4">
-      <c r="A34" s="70"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="69" t="s">
+      <c r="A34" s="71"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="70" t="s">
         <v>591</v>
       </c>
-      <c r="D34" s="68" t="s">
+      <c r="D34" s="69" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="35" ht="17.25" spans="1:4">
-      <c r="A35" s="70"/>
-      <c r="B35" s="68" t="s">
+      <c r="A35" s="71"/>
+      <c r="B35" s="69" t="s">
         <v>593</v>
       </c>
-      <c r="C35" s="69" t="s">
+      <c r="C35" s="70" t="s">
         <v>594</v>
       </c>
-      <c r="D35" s="68" t="s">
+      <c r="D35" s="69" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="36" ht="17.25" spans="1:4">
-      <c r="A36" s="70"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="69" t="s">
+      <c r="A36" s="71"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="70" t="s">
         <v>596</v>
       </c>
-      <c r="D36" s="68" t="s">
+      <c r="D36" s="69" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="37" ht="17.25" spans="1:4">
-      <c r="A37" s="70"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="69" t="s">
+      <c r="A37" s="71"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="70" t="s">
         <v>598</v>
       </c>
-      <c r="D37" s="68" t="s">
+      <c r="D37" s="69" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="38" ht="17.25" spans="1:4">
-      <c r="A38" s="70"/>
-      <c r="B38" s="68"/>
-      <c r="C38" s="69" t="s">
+      <c r="A38" s="71"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="70" t="s">
         <v>600</v>
       </c>
-      <c r="D38" s="68" t="s">
+      <c r="D38" s="69" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="39" ht="17.25" spans="1:4">
-      <c r="A39" s="70"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="69" t="s">
+      <c r="A39" s="71"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="70" t="s">
         <v>602</v>
       </c>
-      <c r="D39" s="68" t="s">
+      <c r="D39" s="69" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="40" ht="17.25" spans="1:4">
-      <c r="A40" s="70"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="69" t="s">
+      <c r="A40" s="71"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="70" t="s">
         <v>604</v>
       </c>
-      <c r="D40" s="68" t="s">
+      <c r="D40" s="69" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="41" ht="17.25" spans="1:4">
-      <c r="A41" s="70"/>
-      <c r="B41" s="68"/>
-      <c r="C41" s="69" t="s">
+      <c r="A41" s="71"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="70" t="s">
         <v>606</v>
       </c>
-      <c r="D41" s="68" t="s">
+      <c r="D41" s="69" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="42" ht="17.25" spans="1:4">
-      <c r="A42" s="70"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="69" t="s">
+      <c r="A42" s="71"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="70" t="s">
         <v>608</v>
       </c>
-      <c r="D42" s="68" t="s">
+      <c r="D42" s="69" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="43" ht="17.25" spans="1:4">
-      <c r="A43" s="70"/>
-      <c r="B43" s="68" t="s">
+      <c r="A43" s="71"/>
+      <c r="B43" s="69" t="s">
         <v>610</v>
       </c>
-      <c r="C43" s="69" t="s">
+      <c r="C43" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="D43" s="68" t="s">
+      <c r="D43" s="69" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="44" ht="17.25" spans="1:4">
-      <c r="A44" s="70"/>
-      <c r="B44" s="68" t="s">
+      <c r="A44" s="71"/>
+      <c r="B44" s="69" t="s">
         <v>612</v>
       </c>
-      <c r="C44" s="69" t="s">
+      <c r="C44" s="70" t="s">
         <v>613</v>
       </c>
-      <c r="D44" s="68" t="s">
+      <c r="D44" s="69" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="45" ht="17.25" spans="1:4">
-      <c r="A45" s="70"/>
-      <c r="B45" s="68"/>
-      <c r="C45" s="69" t="s">
+      <c r="A45" s="71"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="70" t="s">
         <v>615</v>
       </c>
-      <c r="D45" s="68" t="s">
+      <c r="D45" s="69" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="46" ht="17.25" spans="1:4">
-      <c r="A46" s="68" t="s">
+      <c r="A46" s="69" t="s">
         <v>617</v>
       </c>
-      <c r="B46" s="68"/>
-      <c r="C46" s="69" t="s">
+      <c r="B46" s="69"/>
+      <c r="C46" s="70" t="s">
         <v>618</v>
       </c>
-      <c r="D46" s="68" t="s">
+      <c r="D46" s="69" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="47" ht="17.25" spans="1:4">
-      <c r="A47" s="68"/>
-      <c r="B47" s="68"/>
-      <c r="C47" s="69" t="s">
+      <c r="A47" s="69"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="70" t="s">
         <v>620</v>
       </c>
-      <c r="D47" s="68" t="s">
+      <c r="D47" s="69" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="48" ht="17.25" spans="1:4">
-      <c r="A48" s="68"/>
-      <c r="B48" s="68"/>
-      <c r="C48" s="69" t="s">
+      <c r="A48" s="69"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="70" t="s">
         <v>622</v>
       </c>
-      <c r="D48" s="68" t="s">
+      <c r="D48" s="69" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="49" ht="17.25" spans="1:4">
-      <c r="A49" s="68"/>
-      <c r="B49" s="68"/>
-      <c r="C49" s="69" t="s">
+      <c r="A49" s="69"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="70" t="s">
         <v>624</v>
       </c>
-      <c r="D49" s="68" t="s">
+      <c r="D49" s="69" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="50" ht="17.25" spans="1:4">
-      <c r="A50" s="68"/>
-      <c r="B50" s="68"/>
-      <c r="C50" s="68" t="s">
+      <c r="A50" s="69"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="69" t="s">
         <v>626</v>
       </c>
-      <c r="D50" s="68" t="s">
+      <c r="D50" s="69" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="51" ht="17.25" spans="1:4">
-      <c r="A51" s="68" t="s">
+      <c r="A51" s="69" t="s">
         <v>177</v>
       </c>
-      <c r="B51" s="68" t="s">
+      <c r="B51" s="69" t="s">
         <v>628</v>
       </c>
-      <c r="C51" s="69" t="s">
+      <c r="C51" s="70" t="s">
         <v>629</v>
       </c>
-      <c r="D51" s="68" t="s">
+      <c r="D51" s="69" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="52" ht="17.25" spans="1:4">
-      <c r="A52" s="68"/>
-      <c r="B52" s="68"/>
-      <c r="C52" s="69" t="s">
+      <c r="A52" s="69"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="D52" s="68" t="s">
+      <c r="D52" s="69" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="53" ht="17.25" spans="1:4">
-      <c r="A53" s="68"/>
-      <c r="B53" s="68"/>
-      <c r="C53" s="69" t="s">
+      <c r="A53" s="69"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="70" t="s">
         <v>633</v>
       </c>
-      <c r="D53" s="68" t="s">
+      <c r="D53" s="69" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="54" ht="17.25" spans="1:4">
-      <c r="A54" s="68"/>
-      <c r="B54" s="68"/>
-      <c r="C54" s="69" t="s">
+      <c r="A54" s="69"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="70" t="s">
         <v>635</v>
       </c>
-      <c r="D54" s="68" t="s">
+      <c r="D54" s="69" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="55" ht="13" customHeight="1" spans="1:4">
-      <c r="A55" s="68"/>
-      <c r="B55" s="68"/>
-      <c r="C55" s="69" t="s">
+      <c r="A55" s="69"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="70" t="s">
         <v>637</v>
       </c>
-      <c r="D55" s="68" t="s">
+      <c r="D55" s="69" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="56" ht="17.25" spans="1:4">
-      <c r="A56" s="68"/>
-      <c r="B56" s="68"/>
-      <c r="C56" s="69" t="s">
+      <c r="A56" s="69"/>
+      <c r="B56" s="69"/>
+      <c r="C56" s="70" t="s">
         <v>639</v>
       </c>
-      <c r="D56" s="68" t="s">
+      <c r="D56" s="69" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="57" ht="17.25" spans="1:4">
-      <c r="A57" s="68"/>
-      <c r="B57" s="68"/>
-      <c r="C57" s="69" t="s">
+      <c r="A57" s="69"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="70" t="s">
         <v>641</v>
       </c>
-      <c r="D57" s="68" t="s">
+      <c r="D57" s="69" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="58" ht="17.25" spans="1:4">
-      <c r="A58" s="68"/>
-      <c r="B58" s="68"/>
-      <c r="C58" s="69" t="s">
+      <c r="A58" s="69"/>
+      <c r="B58" s="69"/>
+      <c r="C58" s="70" t="s">
         <v>643</v>
       </c>
-      <c r="D58" s="68" t="s">
+      <c r="D58" s="69" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="59" ht="17.25" spans="1:4">
-      <c r="A59" s="68"/>
-      <c r="B59" s="68" t="s">
+      <c r="A59" s="69"/>
+      <c r="B59" s="69" t="s">
         <v>645</v>
       </c>
-      <c r="C59" s="69" t="s">
+      <c r="C59" s="70" t="s">
         <v>646</v>
       </c>
-      <c r="D59" s="68" t="s">
+      <c r="D59" s="69" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="60" ht="17.25" spans="1:4">
-      <c r="A60" s="68"/>
-      <c r="B60" s="68"/>
-      <c r="C60" s="69" t="s">
+      <c r="A60" s="69"/>
+      <c r="B60" s="69"/>
+      <c r="C60" s="70" t="s">
         <v>648</v>
       </c>
-      <c r="D60" s="68" t="s">
+      <c r="D60" s="69" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="61" ht="17.25" spans="1:4">
-      <c r="A61" s="68"/>
-      <c r="B61" s="68"/>
-      <c r="C61" s="69" t="s">
+      <c r="A61" s="69"/>
+      <c r="B61" s="69"/>
+      <c r="C61" s="70" t="s">
         <v>650</v>
       </c>
-      <c r="D61" s="68" t="s">
+      <c r="D61" s="69" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="62" ht="17.25" spans="1:4">
-      <c r="A62" s="68"/>
-      <c r="B62" s="68"/>
-      <c r="C62" s="69" t="s">
+      <c r="A62" s="69"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="70" t="s">
         <v>652</v>
       </c>
-      <c r="D62" s="68" t="s">
+      <c r="D62" s="69" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="63" ht="17.25" spans="1:4">
-      <c r="A63" s="68"/>
-      <c r="B63" s="68"/>
-      <c r="C63" s="69" t="s">
+      <c r="A63" s="69"/>
+      <c r="B63" s="69"/>
+      <c r="C63" s="70" t="s">
         <v>654</v>
       </c>
-      <c r="D63" s="68" t="s">
+      <c r="D63" s="69" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="64" ht="17.25" spans="1:4">
-      <c r="A64" s="68"/>
-      <c r="B64" s="68"/>
-      <c r="C64" s="69" t="s">
+      <c r="A64" s="69"/>
+      <c r="B64" s="69"/>
+      <c r="C64" s="70" t="s">
         <v>656</v>
       </c>
-      <c r="D64" s="68" t="s">
+      <c r="D64" s="69" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="65" ht="17.25" spans="1:4">
-      <c r="A65" s="68"/>
-      <c r="B65" s="68" t="s">
+      <c r="A65" s="69"/>
+      <c r="B65" s="69" t="s">
         <v>658</v>
       </c>
-      <c r="C65" s="69" t="s">
+      <c r="C65" s="70" t="s">
         <v>659</v>
       </c>
-      <c r="D65" s="68" t="s">
+      <c r="D65" s="69" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="66" ht="17.25" spans="1:4">
-      <c r="A66" s="68"/>
-      <c r="B66" s="68"/>
-      <c r="C66" s="69" t="s">
+      <c r="A66" s="69"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="70" t="s">
         <v>661</v>
       </c>
-      <c r="D66" s="68" t="s">
+      <c r="D66" s="69" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="67" ht="17.25" spans="1:4">
-      <c r="A67" s="68"/>
-      <c r="B67" s="68"/>
-      <c r="C67" s="69" t="s">
+      <c r="A67" s="69"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="70" t="s">
         <v>663</v>
       </c>
-      <c r="D67" s="68" t="s">
+      <c r="D67" s="69" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="68" ht="17.25" spans="1:4">
-      <c r="A68" s="68"/>
-      <c r="B68" s="68"/>
-      <c r="C68" s="69" t="s">
+      <c r="A68" s="69"/>
+      <c r="B68" s="69"/>
+      <c r="C68" s="70" t="s">
         <v>665</v>
       </c>
-      <c r="D68" s="68" t="s">
+      <c r="D68" s="69" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="69" ht="17.25" spans="1:4">
-      <c r="A69" s="68"/>
-      <c r="B69" s="68"/>
-      <c r="C69" s="69" t="s">
+      <c r="A69" s="69"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="70" t="s">
         <v>667</v>
       </c>
-      <c r="D69" s="68" t="s">
+      <c r="D69" s="69" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="70" ht="17.25" spans="1:4">
-      <c r="A70" s="68"/>
-      <c r="B70" s="68" t="s">
+      <c r="A70" s="69"/>
+      <c r="B70" s="69" t="s">
         <v>669</v>
       </c>
-      <c r="C70" s="69" t="s">
+      <c r="C70" s="70" t="s">
         <v>670</v>
       </c>
-      <c r="D70" s="68" t="s">
+      <c r="D70" s="69" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="71" ht="17.25" spans="1:4">
-      <c r="A71" s="68" t="s">
+      <c r="A71" s="69" t="s">
         <v>672</v>
       </c>
-      <c r="B71" s="68"/>
-      <c r="C71" s="69" t="s">
+      <c r="B71" s="69"/>
+      <c r="C71" s="70" t="s">
         <v>673</v>
       </c>
-      <c r="D71" s="68" t="s">
+      <c r="D71" s="69" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="72" ht="17.25" spans="1:4">
-      <c r="A72" s="68"/>
-      <c r="B72" s="68"/>
-      <c r="C72" s="69" t="s">
+      <c r="A72" s="69"/>
+      <c r="B72" s="69"/>
+      <c r="C72" s="70" t="s">
         <v>675</v>
       </c>
-      <c r="D72" s="68" t="s">
+      <c r="D72" s="69" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="73" ht="17.25" spans="1:4">
-      <c r="A73" s="68" t="s">
+      <c r="A73" s="69" t="s">
         <v>677</v>
       </c>
-      <c r="B73" s="68"/>
-      <c r="C73" s="69" t="s">
+      <c r="B73" s="69"/>
+      <c r="C73" s="70" t="s">
         <v>678</v>
       </c>
-      <c r="D73" s="68" t="s">
+      <c r="D73" s="69" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="74" ht="17.25" spans="1:4">
-      <c r="A74" s="68"/>
-      <c r="B74" s="68"/>
-      <c r="C74" s="69" t="s">
+      <c r="A74" s="69"/>
+      <c r="B74" s="69"/>
+      <c r="C74" s="70" t="s">
         <v>680</v>
       </c>
-      <c r="D74" s="68" t="s">
+      <c r="D74" s="69" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="75" ht="17.25" spans="1:4">
-      <c r="A75" s="68"/>
-      <c r="B75" s="68"/>
-      <c r="C75" s="69" t="s">
+      <c r="A75" s="69"/>
+      <c r="B75" s="69"/>
+      <c r="C75" s="70" t="s">
         <v>682</v>
       </c>
-      <c r="D75" s="68" t="s">
+      <c r="D75" s="69" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="76" ht="17.25" spans="1:4">
-      <c r="A76" s="68"/>
-      <c r="B76" s="68"/>
-      <c r="C76" s="69" t="s">
+      <c r="A76" s="69"/>
+      <c r="B76" s="69"/>
+      <c r="C76" s="70" t="s">
         <v>684</v>
       </c>
-      <c r="D76" s="68" t="s">
+      <c r="D76" s="69" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="77" ht="17.25" spans="1:4">
-      <c r="A77" s="68"/>
-      <c r="B77" s="68"/>
-      <c r="C77" s="69" t="s">
+      <c r="A77" s="69"/>
+      <c r="B77" s="69"/>
+      <c r="C77" s="70" t="s">
         <v>686</v>
       </c>
-      <c r="D77" s="68" t="s">
+      <c r="D77" s="69" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="78" ht="17.25" spans="1:4">
-      <c r="A78" s="68"/>
-      <c r="B78" s="68"/>
-      <c r="C78" s="69" t="s">
+      <c r="A78" s="69"/>
+      <c r="B78" s="69"/>
+      <c r="C78" s="70" t="s">
         <v>688</v>
       </c>
-      <c r="D78" s="68" t="s">
+      <c r="D78" s="69" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="79" ht="17.25" spans="1:4">
-      <c r="A79" s="68"/>
-      <c r="B79" s="68"/>
-      <c r="C79" s="69" t="s">
+      <c r="A79" s="69"/>
+      <c r="B79" s="69"/>
+      <c r="C79" s="70" t="s">
         <v>690</v>
       </c>
-      <c r="D79" s="68" t="s">
+      <c r="D79" s="69" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="80" ht="17.25" spans="1:4">
-      <c r="A80" s="68" t="s">
+      <c r="A80" s="69" t="s">
         <v>692</v>
       </c>
-      <c r="B80" s="68"/>
-      <c r="C80" s="69" t="s">
+      <c r="B80" s="69"/>
+      <c r="C80" s="70" t="s">
         <v>693</v>
       </c>
-      <c r="D80" s="68" t="s">
+      <c r="D80" s="69" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="81" ht="17.25" spans="1:4">
-      <c r="A81" s="68"/>
-      <c r="B81" s="68"/>
-      <c r="C81" s="69" t="s">
+      <c r="A81" s="69"/>
+      <c r="B81" s="69"/>
+      <c r="C81" s="70" t="s">
         <v>695</v>
       </c>
-      <c r="D81" s="68" t="s">
+      <c r="D81" s="69" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="82" ht="17.25" spans="1:4">
-      <c r="A82" s="68"/>
-      <c r="B82" s="68"/>
-      <c r="C82" s="69" t="s">
+      <c r="A82" s="69"/>
+      <c r="B82" s="69"/>
+      <c r="C82" s="70" t="s">
         <v>697</v>
       </c>
-      <c r="D82" s="68" t="s">
+      <c r="D82" s="69" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="83" spans="3:3">
-      <c r="C83" s="71"/>
+      <c r="C83" s="3"/>
     </row>
     <row r="84" spans="3:3">
-      <c r="C84" s="71"/>
+      <c r="C84" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -19629,893 +19639,893 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="92.625" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="10.75" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="92.625" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>699</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>700</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="61" t="s">
         <v>701</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="62" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59" t="s">
+      <c r="A3" s="61"/>
+      <c r="B3" s="61" t="s">
         <v>703</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="63" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="61" t="s">
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="63" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="61" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="63" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59" t="s">
+      <c r="A6" s="61"/>
+      <c r="B6" s="61" t="s">
         <v>707</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="62" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59" t="s">
+      <c r="A7" s="61"/>
+      <c r="B7" s="61" t="s">
         <v>709</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="63" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="61" t="s">
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="63" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="61" t="s">
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="63" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59" t="s">
+      <c r="A10" s="61"/>
+      <c r="B10" s="61" t="s">
         <v>713</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="62" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="59"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="60" t="s">
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="62" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="59"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="60" t="s">
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="62" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="59"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="60" t="s">
+      <c r="A13" s="61"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="59"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="60" t="s">
+      <c r="A14" s="61"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="62" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="59"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="60" t="s">
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="62" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="59"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="60" t="s">
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="62" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59" t="s">
+      <c r="A17" s="61"/>
+      <c r="B17" s="61" t="s">
         <v>721</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="63" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="61" t="s">
         <v>723</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="61" t="s">
         <v>724</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="62" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="59"/>
-      <c r="B19" s="59" t="s">
+      <c r="A19" s="61"/>
+      <c r="B19" s="61" t="s">
         <v>726</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="63" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59" t="s">
+      <c r="A20" s="61"/>
+      <c r="B20" s="61" t="s">
         <v>728</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="63" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="59"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="61" t="s">
+      <c r="A21" s="61"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="63" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="59"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="61" t="s">
+      <c r="A22" s="61"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="63" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="59"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="61" t="s">
+      <c r="A23" s="61"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="63" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="59"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="61" t="s">
+      <c r="A24" s="61"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="63" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="59"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="60" t="s">
+      <c r="A25" s="61"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="62" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="59"/>
-      <c r="B26" s="59" t="s">
+      <c r="A26" s="61"/>
+      <c r="B26" s="61" t="s">
         <v>735</v>
       </c>
-      <c r="C26" s="61" t="s">
+      <c r="C26" s="63" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="61" t="s">
         <v>737</v>
       </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="60" t="s">
+      <c r="B27" s="61"/>
+      <c r="C27" s="62" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="59"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="60" t="s">
+      <c r="A28" s="61"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="62" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="59"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="60" t="s">
+      <c r="A29" s="61"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="62" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="59"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="60" t="s">
+      <c r="A30" s="61"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="62" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="59"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="60" t="s">
+      <c r="A31" s="61"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="62" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="59"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="60" t="s">
+      <c r="A32" s="61"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="62" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="59"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="60" t="s">
+      <c r="A33" s="61"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="62" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="59"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="60" t="s">
+      <c r="A34" s="61"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="62" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="59"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="60" t="s">
+      <c r="A35" s="61"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="62" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="59" t="s">
+      <c r="A36" s="61" t="s">
         <v>747</v>
       </c>
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="61" t="s">
         <v>748</v>
       </c>
-      <c r="C36" s="61" t="s">
+      <c r="C36" s="63" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="59"/>
-      <c r="B37" s="59" t="s">
+      <c r="A37" s="61"/>
+      <c r="B37" s="61" t="s">
         <v>750</v>
       </c>
-      <c r="C37" s="60" t="s">
+      <c r="C37" s="62" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="59"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="60" t="s">
+      <c r="A38" s="61"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="62" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="59"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="60" t="s">
+      <c r="A39" s="61"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="62" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="59" t="s">
+      <c r="A40" s="61" t="s">
         <v>754</v>
       </c>
-      <c r="B40" s="59" t="s">
+      <c r="B40" s="61" t="s">
         <v>755</v>
       </c>
-      <c r="C40" s="61" t="s">
+      <c r="C40" s="63" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="59"/>
-      <c r="B41" s="59" t="s">
+      <c r="A41" s="61"/>
+      <c r="B41" s="61" t="s">
         <v>757</v>
       </c>
-      <c r="C41" s="60" t="s">
+      <c r="C41" s="62" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="59"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="60" t="s">
+      <c r="A42" s="61"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="62" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="59"/>
-      <c r="B43" s="59" t="s">
+      <c r="A43" s="61"/>
+      <c r="B43" s="61" t="s">
         <v>760</v>
       </c>
-      <c r="C43" s="61" t="s">
+      <c r="C43" s="63" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="59"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="61" t="s">
+      <c r="A44" s="61"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="63" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="59"/>
-      <c r="B45" s="59" t="s">
+      <c r="A45" s="61"/>
+      <c r="B45" s="61" t="s">
         <v>763</v>
       </c>
-      <c r="C45" s="60" t="s">
+      <c r="C45" s="62" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="59"/>
-      <c r="B46" s="59" t="s">
+      <c r="A46" s="61"/>
+      <c r="B46" s="61" t="s">
         <v>765</v>
       </c>
-      <c r="C46" s="61" t="s">
+      <c r="C46" s="63" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="59"/>
-      <c r="B47" s="59" t="s">
+      <c r="A47" s="61"/>
+      <c r="B47" s="61" t="s">
         <v>767</v>
       </c>
-      <c r="C47" s="60" t="s">
+      <c r="C47" s="62" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="59"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="60" t="s">
+      <c r="A48" s="61"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="62" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="59"/>
-      <c r="B49" s="59" t="s">
+      <c r="A49" s="61"/>
+      <c r="B49" s="61" t="s">
         <v>770</v>
       </c>
-      <c r="C49" s="61" t="s">
+      <c r="C49" s="63" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="59"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="62" t="s">
+      <c r="A50" s="61"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="64" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="59"/>
-      <c r="B51" s="59" t="s">
+      <c r="A51" s="61"/>
+      <c r="B51" s="61" t="s">
         <v>773</v>
       </c>
-      <c r="C51" s="60" t="s">
+      <c r="C51" s="62" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="59"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="60" t="s">
+      <c r="A52" s="61"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="62" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="59"/>
-      <c r="B53" s="59" t="s">
+      <c r="A53" s="61"/>
+      <c r="B53" s="61" t="s">
         <v>776</v>
       </c>
-      <c r="C53" s="61" t="s">
+      <c r="C53" s="63" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="59"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="61" t="s">
+      <c r="A54" s="61"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="63" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="59" t="s">
+      <c r="A55" s="61" t="s">
         <v>779</v>
       </c>
-      <c r="B55" s="59"/>
-      <c r="C55" s="60" t="s">
+      <c r="B55" s="61"/>
+      <c r="C55" s="62" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="59"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="62" t="s">
+      <c r="A56" s="61"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="64" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="59"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="61" t="s">
+      <c r="A57" s="61"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="63" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="59"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="61" t="s">
+      <c r="A58" s="61"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="63" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="59"/>
-      <c r="B59" s="59" t="s">
+      <c r="A59" s="61"/>
+      <c r="B59" s="61" t="s">
         <v>784</v>
       </c>
-      <c r="C59" s="60" t="s">
+      <c r="C59" s="62" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="59"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="60" t="s">
+      <c r="A60" s="61"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="62" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="59"/>
-      <c r="B61" s="59" t="s">
+      <c r="A61" s="61"/>
+      <c r="B61" s="61" t="s">
         <v>787</v>
       </c>
-      <c r="C61" s="61" t="s">
+      <c r="C61" s="63" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="59"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="61" t="s">
+      <c r="A62" s="61"/>
+      <c r="B62" s="61"/>
+      <c r="C62" s="63" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="59"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="62" t="s">
+      <c r="A63" s="61"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="64" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="59"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="61" t="s">
+      <c r="A64" s="61"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="63" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="59"/>
-      <c r="B65" s="59" t="s">
+      <c r="A65" s="61"/>
+      <c r="B65" s="61" t="s">
         <v>792</v>
       </c>
-      <c r="C65" s="60" t="s">
+      <c r="C65" s="62" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="59"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="60" t="s">
+      <c r="A66" s="61"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="62" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="59" t="s">
+      <c r="A67" s="61" t="s">
         <v>795</v>
       </c>
-      <c r="B67" s="59"/>
-      <c r="C67" s="61" t="s">
+      <c r="B67" s="61"/>
+      <c r="C67" s="63" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="59"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="61" t="s">
+      <c r="A68" s="61"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="63" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="59"/>
-      <c r="B69" s="59"/>
-      <c r="C69" s="61" t="s">
+      <c r="A69" s="61"/>
+      <c r="B69" s="61"/>
+      <c r="C69" s="63" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="59" t="s">
+      <c r="A70" s="61" t="s">
         <v>799</v>
       </c>
-      <c r="B70" s="59"/>
-      <c r="C70" s="63" t="s">
+      <c r="B70" s="61"/>
+      <c r="C70" s="65" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="59"/>
-      <c r="B71" s="59"/>
-      <c r="C71" s="64" t="s">
+      <c r="A71" s="61"/>
+      <c r="B71" s="61"/>
+      <c r="C71" s="66" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="59"/>
-      <c r="B72" s="59"/>
-      <c r="C72" s="63" t="s">
+      <c r="A72" s="61"/>
+      <c r="B72" s="61"/>
+      <c r="C72" s="65" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="59"/>
-      <c r="B73" s="59"/>
-      <c r="C73" s="63" t="s">
+      <c r="A73" s="61"/>
+      <c r="B73" s="61"/>
+      <c r="C73" s="65" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="59"/>
-      <c r="B74" s="59"/>
-      <c r="C74" s="63" t="s">
+      <c r="A74" s="61"/>
+      <c r="B74" s="61"/>
+      <c r="C74" s="65" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="59"/>
-      <c r="B75" s="59"/>
-      <c r="C75" s="63" t="s">
+      <c r="A75" s="61"/>
+      <c r="B75" s="61"/>
+      <c r="C75" s="65" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="59"/>
-      <c r="B76" s="59"/>
-      <c r="C76" s="63" t="s">
+      <c r="A76" s="61"/>
+      <c r="B76" s="61"/>
+      <c r="C76" s="65" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="59"/>
-      <c r="B77" s="59"/>
-      <c r="C77" s="63" t="s">
+      <c r="A77" s="61"/>
+      <c r="B77" s="61"/>
+      <c r="C77" s="65" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="59"/>
-      <c r="B78" s="59"/>
-      <c r="C78" s="63" t="s">
+      <c r="A78" s="61"/>
+      <c r="B78" s="61"/>
+      <c r="C78" s="65" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="59"/>
-      <c r="B79" s="59"/>
-      <c r="C79" s="63" t="s">
+      <c r="A79" s="61"/>
+      <c r="B79" s="61"/>
+      <c r="C79" s="65" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="59"/>
-      <c r="B80" s="59"/>
-      <c r="C80" s="63" t="s">
+      <c r="A80" s="61"/>
+      <c r="B80" s="61"/>
+      <c r="C80" s="65" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="59"/>
-      <c r="B81" s="59"/>
-      <c r="C81" s="63" t="s">
+      <c r="A81" s="61"/>
+      <c r="B81" s="61"/>
+      <c r="C81" s="65" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="59"/>
-      <c r="B82" s="59"/>
-      <c r="C82" s="63" t="s">
+      <c r="A82" s="61"/>
+      <c r="B82" s="61"/>
+      <c r="C82" s="65" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="59"/>
-      <c r="B83" s="59"/>
-      <c r="C83" s="63" t="s">
+      <c r="A83" s="61"/>
+      <c r="B83" s="61"/>
+      <c r="C83" s="65" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="59"/>
-      <c r="B84" s="59"/>
-      <c r="C84" s="63" t="s">
+      <c r="A84" s="61"/>
+      <c r="B84" s="61"/>
+      <c r="C84" s="65" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="59"/>
-      <c r="B85" s="59"/>
-      <c r="C85" s="63" t="s">
+      <c r="A85" s="61"/>
+      <c r="B85" s="61"/>
+      <c r="C85" s="65" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="59"/>
-      <c r="B86" s="59"/>
-      <c r="C86" s="63" t="s">
+      <c r="A86" s="61"/>
+      <c r="B86" s="61"/>
+      <c r="C86" s="65" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="59" t="s">
+      <c r="A87" s="61" t="s">
         <v>817</v>
       </c>
-      <c r="B87" s="59"/>
-      <c r="C87" s="63" t="s">
+      <c r="B87" s="61"/>
+      <c r="C87" s="65" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="59"/>
-      <c r="B88" s="59"/>
-      <c r="C88" s="63" t="s">
+      <c r="A88" s="61"/>
+      <c r="B88" s="61"/>
+      <c r="C88" s="65" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="59" t="s">
+      <c r="A89" s="61" t="s">
         <v>820</v>
       </c>
-      <c r="B89" s="59"/>
-      <c r="C89" s="63" t="s">
+      <c r="B89" s="61"/>
+      <c r="C89" s="65" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="59"/>
-      <c r="B90" s="59"/>
-      <c r="C90" s="63" t="s">
+      <c r="A90" s="61"/>
+      <c r="B90" s="61"/>
+      <c r="C90" s="65" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="59"/>
-      <c r="B91" s="59"/>
-      <c r="C91" s="63" t="s">
+      <c r="A91" s="61"/>
+      <c r="B91" s="61"/>
+      <c r="C91" s="65" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="59"/>
-      <c r="B92" s="59"/>
-      <c r="C92" s="63" t="s">
+      <c r="A92" s="61"/>
+      <c r="B92" s="61"/>
+      <c r="C92" s="65" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="59"/>
-      <c r="B93" s="59"/>
-      <c r="C93" s="63" t="s">
+      <c r="A93" s="61"/>
+      <c r="B93" s="61"/>
+      <c r="C93" s="65" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="59"/>
-      <c r="B94" s="59"/>
-      <c r="C94" s="63" t="s">
+      <c r="A94" s="61"/>
+      <c r="B94" s="61"/>
+      <c r="C94" s="65" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="59"/>
-      <c r="B95" s="59"/>
-      <c r="C95" s="63" t="s">
+      <c r="A95" s="61"/>
+      <c r="B95" s="61"/>
+      <c r="C95" s="65" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="59"/>
-      <c r="B96" s="59"/>
-      <c r="C96" s="63" t="s">
+      <c r="A96" s="61"/>
+      <c r="B96" s="61"/>
+      <c r="C96" s="65" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="59" t="s">
+      <c r="A97" s="61" t="s">
         <v>829</v>
       </c>
-      <c r="B97" s="59"/>
-      <c r="C97" s="63" t="s">
+      <c r="B97" s="61"/>
+      <c r="C97" s="65" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="59"/>
-      <c r="B98" s="59"/>
-      <c r="C98" s="63" t="s">
+      <c r="A98" s="61"/>
+      <c r="B98" s="61"/>
+      <c r="C98" s="65" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="59" t="s">
+      <c r="A99" s="61" t="s">
         <v>832</v>
       </c>
-      <c r="B99" s="59"/>
-      <c r="C99" s="63" t="s">
+      <c r="B99" s="61"/>
+      <c r="C99" s="65" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="59"/>
-      <c r="B100" s="59"/>
-      <c r="C100" s="63" t="s">
+      <c r="A100" s="61"/>
+      <c r="B100" s="61"/>
+      <c r="C100" s="65" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="59"/>
-      <c r="B101" s="59"/>
-      <c r="C101" s="63" t="s">
+      <c r="A101" s="61"/>
+      <c r="B101" s="61"/>
+      <c r="C101" s="65" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="59"/>
-      <c r="B102" s="59"/>
-      <c r="C102" s="63" t="s">
+      <c r="A102" s="61"/>
+      <c r="B102" s="61"/>
+      <c r="C102" s="65" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="59"/>
-      <c r="B103" s="59"/>
-      <c r="C103" s="63" t="s">
+      <c r="A103" s="61"/>
+      <c r="B103" s="61"/>
+      <c r="C103" s="65" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="59"/>
-      <c r="B104" s="59"/>
-      <c r="C104" s="63" t="s">
+      <c r="A104" s="61"/>
+      <c r="B104" s="61"/>
+      <c r="C104" s="65" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="59"/>
-      <c r="B105" s="59"/>
-      <c r="C105" s="63" t="s">
+      <c r="A105" s="61"/>
+      <c r="B105" s="61"/>
+      <c r="C105" s="65" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="59"/>
-      <c r="B106" s="59"/>
-      <c r="C106" s="63" t="s">
+      <c r="A106" s="61"/>
+      <c r="B106" s="61"/>
+      <c r="C106" s="65" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="59"/>
-      <c r="B107" s="59"/>
-      <c r="C107" s="63" t="s">
+      <c r="A107" s="61"/>
+      <c r="B107" s="61"/>
+      <c r="C107" s="65" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="59"/>
-      <c r="B108" s="59"/>
-      <c r="C108" s="63" t="s">
+      <c r="A108" s="61"/>
+      <c r="B108" s="61"/>
+      <c r="C108" s="65" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="59"/>
-      <c r="B109" s="59"/>
-      <c r="C109" s="63" t="s">
+      <c r="A109" s="61"/>
+      <c r="B109" s="61"/>
+      <c r="C109" s="65" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="59"/>
-      <c r="B110" s="59"/>
-      <c r="C110" s="63" t="s">
+      <c r="A110" s="61"/>
+      <c r="B110" s="61"/>
+      <c r="C110" s="65" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="59"/>
-      <c r="B111" s="59"/>
-      <c r="C111" s="63" t="s">
+      <c r="A111" s="61"/>
+      <c r="B111" s="61"/>
+      <c r="C111" s="65" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="59"/>
-      <c r="B112" s="59"/>
-      <c r="C112" s="63" t="s">
+      <c r="A112" s="61"/>
+      <c r="B112" s="61"/>
+      <c r="C112" s="65" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="59"/>
-      <c r="B113" s="59"/>
-      <c r="C113" s="63" t="s">
+      <c r="A113" s="61"/>
+      <c r="B113" s="61"/>
+      <c r="C113" s="65" t="s">
         <v>847</v>
       </c>
     </row>
     <row r="114" ht="33" spans="1:3">
-      <c r="A114" s="59"/>
-      <c r="B114" s="59"/>
-      <c r="C114" s="63" t="s">
+      <c r="A114" s="61"/>
+      <c r="B114" s="61"/>
+      <c r="C114" s="65" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="59"/>
-      <c r="B115" s="59"/>
-      <c r="C115" s="63" t="s">
+      <c r="A115" s="61"/>
+      <c r="B115" s="61"/>
+      <c r="C115" s="65" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="65"/>
-      <c r="B116" s="65"/>
-      <c r="C116" s="66"/>
+      <c r="A116" s="67"/>
+      <c r="B116" s="67"/>
+      <c r="C116" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -20679,519 +20689,519 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="33.375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="16.375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="33.375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>850</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>851</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>852</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="37" t="s">
         <v>853</v>
       </c>
-      <c r="D2" s="35"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="52" t="s">
         <v>854</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="37" t="s">
         <v>855</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="37" t="s">
         <v>856</v>
       </c>
-      <c r="D3" s="35"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>857</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="37" t="s">
         <v>858</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="53" t="s">
         <v>859</v>
       </c>
-      <c r="D4" s="35"/>
+      <c r="D4" s="37"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="52" t="s">
         <v>860</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="37" t="s">
         <v>861</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="37" t="s">
         <v>862</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="37" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="52" t="s">
         <v>864</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="37" t="s">
         <v>865</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="37" t="s">
         <v>866</v>
       </c>
-      <c r="D6" s="35"/>
+      <c r="D6" s="37"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="52" t="s">
         <v>867</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="37" t="s">
         <v>868</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="37" t="s">
         <v>869</v>
       </c>
-      <c r="D7" s="35"/>
+      <c r="D7" s="37"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="52" t="s">
         <v>870</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="37" t="s">
         <v>871</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="37" t="s">
         <v>872</v>
       </c>
-      <c r="D8" s="35"/>
+      <c r="D8" s="37"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="52" t="s">
         <v>873</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="37" t="s">
         <v>874</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="37" t="s">
         <v>875</v>
       </c>
-      <c r="D9" s="35"/>
+      <c r="D9" s="37"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="52" t="s">
         <v>876</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="37" t="s">
         <v>877</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="37" t="s">
         <v>878</v>
       </c>
-      <c r="D10" s="35"/>
+      <c r="D10" s="37"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="52" t="s">
         <v>879</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="37" t="s">
         <v>880</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="52" t="s">
         <v>881</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="37" t="s">
         <v>882</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="37" t="s">
         <v>883</v>
       </c>
-      <c r="D12" s="35"/>
+      <c r="D12" s="37"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="54" t="s">
         <v>884</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="55" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="54" t="s">
         <v>886</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="55" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="18" ht="33" spans="1:2">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="54" t="s">
         <v>888</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="55" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="54" t="s">
         <v>890</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="55" t="s">
         <v>891</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="54" t="s">
         <v>892</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="55" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="21" ht="33" spans="1:2">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="54" t="s">
         <v>894</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="55" t="s">
         <v>895</v>
       </c>
     </row>
     <row r="22" ht="33" spans="1:2">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="54" t="s">
         <v>896</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="55" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="54" t="s">
         <v>898</v>
       </c>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="55" t="s">
         <v>899</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="54" t="s">
         <v>900</v>
       </c>
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="55" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="25" ht="33" spans="1:2">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="54" t="s">
         <v>902</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="55" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="26" ht="33" spans="1:2">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="46" t="s">
         <v>904</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="55" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="27" ht="33" spans="1:2">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="54" t="s">
         <v>906</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="55" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="54" t="s">
         <v>908</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="55" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="54" t="s">
         <v>910</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="55" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="31" ht="33" spans="1:2">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="54" t="s">
         <v>912</v>
       </c>
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="55" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="32" ht="33" spans="1:2">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="54" t="s">
         <v>914</v>
       </c>
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="55" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="54" t="s">
         <v>916</v>
       </c>
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="55" t="s">
         <v>917</v>
       </c>
     </row>
     <row r="34" ht="33" spans="1:2">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="54" t="s">
         <v>918</v>
       </c>
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="55" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="54" t="s">
         <v>920</v>
       </c>
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="55" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="54" t="s">
         <v>922</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="55" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="52" t="s">
+      <c r="A37" s="54" t="s">
         <v>924</v>
       </c>
-      <c r="B37" s="53" t="s">
+      <c r="B37" s="55" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="52" t="s">
+      <c r="A40" s="54" t="s">
         <v>926</v>
       </c>
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="55" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="52" t="s">
+      <c r="A41" s="54" t="s">
         <v>928</v>
       </c>
-      <c r="B41" s="53" t="s">
+      <c r="B41" s="55" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="52" t="s">
+      <c r="A42" s="54" t="s">
         <v>930</v>
       </c>
-      <c r="B42" s="53" t="s">
+      <c r="B42" s="55" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="43" ht="33" spans="1:2">
-      <c r="A43" s="52" t="s">
+      <c r="A43" s="54" t="s">
         <v>932</v>
       </c>
-      <c r="B43" s="53" t="s">
+      <c r="B43" s="55" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="52" t="s">
+      <c r="A44" s="54" t="s">
         <v>934</v>
       </c>
-      <c r="B44" s="53" t="s">
+      <c r="B44" s="55" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="52" t="s">
+      <c r="A48" s="54" t="s">
         <v>936</v>
       </c>
-      <c r="B48" s="53" t="s">
+      <c r="B48" s="55" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="52" t="s">
+      <c r="A49" s="54" t="s">
         <v>938</v>
       </c>
-      <c r="B49" s="53" t="s">
+      <c r="B49" s="55" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="52" t="s">
+      <c r="A52" s="54" t="s">
         <v>940</v>
       </c>
-      <c r="B52" s="53" t="s">
+      <c r="B52" s="55" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="52" t="s">
+      <c r="A53" s="54" t="s">
         <v>942</v>
       </c>
-      <c r="B53" s="53" t="s">
+      <c r="B53" s="55" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="54" ht="33" spans="1:2">
-      <c r="A54" s="52" t="s">
+      <c r="A54" s="54" t="s">
         <v>944</v>
       </c>
-      <c r="B54" s="53" t="s">
+      <c r="B54" s="55" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="56" ht="33" spans="1:2">
-      <c r="A56" s="52" t="s">
+      <c r="A56" s="54" t="s">
         <v>946</v>
       </c>
-      <c r="B56" s="53" t="s">
+      <c r="B56" s="55" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="52" t="s">
+      <c r="A62" s="54" t="s">
         <v>948</v>
       </c>
-      <c r="B62" s="53" t="s">
+      <c r="B62" s="55" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="54"/>
+      <c r="A63" s="56"/>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="54"/>
+      <c r="A64" s="56"/>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="54"/>
+      <c r="A65" s="56"/>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="55" t="s">
+      <c r="A66" s="57" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="54"/>
+      <c r="A67" s="56"/>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="56" t="s">
+      <c r="A68" s="58" t="s">
         <v>951</v>
       </c>
-      <c r="B68" s="57" t="s">
+      <c r="B68" s="59" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="69" ht="33" spans="1:2">
-      <c r="A69" s="44" t="s">
+      <c r="A69" s="46" t="s">
         <v>952</v>
       </c>
-      <c r="B69" s="53" t="s">
+      <c r="B69" s="55" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="70" ht="33" spans="1:2">
-      <c r="A70" s="44" t="s">
+      <c r="A70" s="46" t="s">
         <v>954</v>
       </c>
-      <c r="B70" s="53" t="s">
+      <c r="B70" s="55" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="71" ht="33" spans="1:2">
-      <c r="A71" s="44" t="s">
+      <c r="A71" s="46" t="s">
         <v>956</v>
       </c>
-      <c r="B71" s="53" t="s">
+      <c r="B71" s="55" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="72" ht="33" spans="1:2">
-      <c r="A72" s="44" t="s">
+      <c r="A72" s="46" t="s">
         <v>958</v>
       </c>
-      <c r="B72" s="53" t="s">
+      <c r="B72" s="55" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="73" ht="33" spans="1:2">
-      <c r="A73" s="44" t="s">
+      <c r="A73" s="46" t="s">
         <v>960</v>
       </c>
-      <c r="B73" s="53" t="s">
+      <c r="B73" s="55" t="s">
         <v>961</v>
       </c>
     </row>
     <row r="74" ht="33" spans="1:2">
-      <c r="A74" s="44" t="s">
+      <c r="A74" s="46" t="s">
         <v>962</v>
       </c>
-      <c r="B74" s="53" t="s">
+      <c r="B74" s="55" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="75" ht="33" spans="1:2">
-      <c r="A75" s="44" t="s">
+      <c r="A75" s="46" t="s">
         <v>964</v>
       </c>
-      <c r="B75" s="53" t="s">
+      <c r="B75" s="55" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="76" ht="33" spans="1:2">
-      <c r="A76" s="44" t="s">
+      <c r="A76" s="46" t="s">
         <v>966</v>
       </c>
-      <c r="B76" s="53" t="s">
+      <c r="B76" s="55" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="77" ht="33" spans="1:2">
-      <c r="A77" s="44" t="s">
+      <c r="A77" s="46" t="s">
         <v>968</v>
       </c>
-      <c r="B77" s="53" t="s">
+      <c r="B77" s="55" t="s">
         <v>969</v>
       </c>
     </row>
     <row r="78" ht="33" spans="1:2">
-      <c r="A78" s="44" t="s">
+      <c r="A78" s="46" t="s">
         <v>970</v>
       </c>
-      <c r="B78" s="53" t="s">
+      <c r="B78" s="55" t="s">
         <v>971</v>
       </c>
     </row>
@@ -21249,235 +21259,235 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9.625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="58.375" style="32" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="59.625" style="32" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="32"/>
+    <col min="1" max="1" width="9.625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="58.375" style="34" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="59.625" style="34" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>972</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="36" t="s">
         <v>973</v>
       </c>
-      <c r="D1" s="34"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="37" t="s">
         <v>974</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="38" t="s">
         <v>975</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="39" t="s">
         <v>976</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="40" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="37" t="s">
         <v>978</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>979</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="40" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A4" s="35"/>
-      <c r="B4" s="39" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="41" t="s">
         <v>981</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="40" t="s">
         <v>982</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="37" t="s">
         <v>983</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="38" t="s">
         <v>984</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="39" t="s">
         <v>326</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="42" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="38" t="s">
         <v>986</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="40" t="s">
+      <c r="C6" s="39"/>
+      <c r="D6" s="42" t="s">
         <v>987</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="37" t="s">
         <v>988</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="41" t="s">
         <v>989</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="39" t="s">
         <v>983</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="40" t="s">
         <v>990</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="35"/>
-      <c r="B8" s="39" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="41" t="s">
         <v>991</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38" t="s">
+      <c r="C8" s="39"/>
+      <c r="D8" s="40" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="35"/>
-      <c r="B9" s="39" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="41" t="s">
         <v>993</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="39" t="s">
         <v>994</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="42" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="35"/>
-      <c r="B10" s="39" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="41" t="s">
         <v>996</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="40" t="s">
+      <c r="C10" s="39"/>
+      <c r="D10" s="42" t="s">
         <v>997</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="37" t="s">
         <v>998</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="38" t="s">
         <v>999</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="40" t="s">
+      <c r="C11" s="39"/>
+      <c r="D11" s="42" t="s">
         <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="35"/>
-      <c r="B12" s="36" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="38" t="s">
         <v>1001</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="39" t="s">
         <v>1002</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="40" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="37" t="s">
         <v>1004</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="41" t="s">
         <v>1005</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="43" t="s">
         <v>1006</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="42" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="35"/>
-      <c r="B14" s="39" t="s">
+      <c r="A14" s="37"/>
+      <c r="B14" s="41" t="s">
         <v>1008</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="40" t="s">
+      <c r="C14" s="44"/>
+      <c r="D14" s="42" t="s">
         <v>1009</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="35"/>
-      <c r="B15" s="39" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="41" t="s">
         <v>1010</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="40" t="s">
+      <c r="C15" s="44"/>
+      <c r="D15" s="42" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="35"/>
-      <c r="B16" s="39" t="s">
+      <c r="A16" s="37"/>
+      <c r="B16" s="41" t="s">
         <v>1012</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="38" t="s">
+      <c r="C16" s="44"/>
+      <c r="D16" s="40" t="s">
         <v>1013</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="45" t="s">
         <v>1014</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="38" t="s">
+      <c r="B17" s="45"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="40" t="s">
         <v>1015</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="38" t="s">
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="40" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="19" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="37" t="s">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="39" t="s">
         <v>998</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="42" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="40" t="s">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="42" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="21" s="30" customFormat="1" spans="1:1">
-      <c r="A21" s="46"/>
+    <row r="21" s="32" customFormat="1" spans="1:1">
+      <c r="A21" s="48"/>
     </row>
     <row r="22" ht="18.75" customHeight="1"/>
     <row r="24" ht="18.75" customHeight="1"/>
@@ -21553,848 +21563,848 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="25.875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="39.125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9" style="6"/>
-    <col min="5" max="5" width="10.625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="26.75" style="6" customWidth="1"/>
-    <col min="7" max="7" width="37.5" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="10.5" style="8" customWidth="1"/>
+    <col min="2" max="2" width="25.875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="39.125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9" style="8"/>
+    <col min="5" max="5" width="10.625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="26.75" style="8" customWidth="1"/>
+    <col min="7" max="7" width="37.5" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>1019</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" ht="33" spans="1:7">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>1020</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>1021</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>1022</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="14" t="s">
         <v>1023</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="11" t="s">
         <v>1024</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="12" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="3" ht="33" spans="1:7">
-      <c r="A3" s="8"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="12" t="s">
         <v>1026</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>1027</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="11" t="s">
         <v>1028</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="12" t="s">
         <v>1029</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>1030</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="16" t="s">
         <v>1031</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>1032</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="9" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="11" t="s">
         <v>1033</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="12" t="s">
         <v>1034</v>
       </c>
     </row>
     <row r="5" ht="33" spans="1:7">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
         <v>1035</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>1036</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="9" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="11" t="s">
         <v>1037</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="12" t="s">
         <v>1038</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11" t="s">
         <v>1039</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="12" t="s">
         <v>1040</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="9" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="11" t="s">
         <v>1041</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="12" t="s">
         <v>1042</v>
       </c>
     </row>
     <row r="7" ht="33" spans="1:7">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11" t="s">
         <v>1043</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="12" t="s">
         <v>1044</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="14" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="16" t="s">
         <v>1045</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="17" t="s">
         <v>1046</v>
       </c>
     </row>
     <row r="8" ht="33" spans="1:7">
-      <c r="A8" s="8"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="16" t="s">
         <v>1047</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="17" t="s">
         <v>1048</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="14" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="16" t="s">
         <v>1049</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="17" t="s">
         <v>1050</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="8"/>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="16" t="s">
         <v>1051</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="17" t="s">
         <v>1052</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="14" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="16" t="s">
         <v>1053</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="17" t="s">
         <v>1054</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="8"/>
-      <c r="B10" s="14" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="16" t="s">
         <v>1055</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="17" t="s">
         <v>1056</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="14" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="16" t="s">
         <v>1057</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="17" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11" t="s">
         <v>1059</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="12" t="s">
         <v>1060</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="14" t="s">
+      <c r="D11" s="15"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="16" t="s">
         <v>1061</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="17" t="s">
         <v>1062</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11" t="s">
         <v>1063</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="12" t="s">
         <v>1064</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="14" t="s">
+      <c r="D12" s="15"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="16" t="s">
         <v>1065</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="17" t="s">
         <v>1066</v>
       </c>
     </row>
     <row r="13" ht="33" spans="1:7">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11" t="s">
         <v>1067</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="12" t="s">
         <v>1068</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="10" t="s">
+      <c r="D13" s="15"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="12" t="s">
         <v>1069</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="12" t="s">
         <v>1070</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="8"/>
-      <c r="B14" s="14" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="16" t="s">
         <v>1071</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="17" t="s">
         <v>1072</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="10" t="s">
+      <c r="D14" s="15"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="12" t="s">
         <v>1073</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="12" t="s">
         <v>1074</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11" t="s">
         <v>1075</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="12" t="s">
         <v>1076</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="9" t="s">
+      <c r="D15" s="15"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="11" t="s">
         <v>1077</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="12" t="s">
         <v>1078</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="9" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="11" t="s">
         <v>1079</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="12" t="s">
         <v>1080</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11" t="s">
         <v>1081</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="12" t="s">
         <v>1082</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="15" t="s">
+      <c r="D17" s="15"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="17" t="s">
         <v>1083</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="17" t="s">
         <v>1084</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="8"/>
-      <c r="B18" s="14" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="16" t="s">
         <v>1085</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="17" t="s">
         <v>1086</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="8" t="s">
+      <c r="D18" s="15"/>
+      <c r="E18" s="10" t="s">
         <v>1087</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="16" t="s">
         <v>1088</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="17" t="s">
         <v>1089</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="8"/>
-      <c r="B19" s="14" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="16" t="s">
         <v>1090</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="17" t="s">
         <v>1091</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="14" t="s">
+      <c r="D19" s="15"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="16" t="s">
         <v>1092</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="17" t="s">
         <v>1093</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="10" t="s">
         <v>983</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="11" t="s">
         <v>1094</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="12" t="s">
         <v>1095</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="14" t="s">
+      <c r="D20" s="15"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="16" t="s">
         <v>1096</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="17" t="s">
         <v>1097</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11" t="s">
         <v>1098</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="12" t="s">
         <v>1099</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="14" t="s">
+      <c r="D21" s="15"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="16" t="s">
         <v>1100</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="17" t="s">
         <v>1101</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11" t="s">
         <v>1102</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="12" t="s">
         <v>1103</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="8" t="s">
+      <c r="D22" s="15"/>
+      <c r="E22" s="10" t="s">
         <v>1104</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="11" t="s">
         <v>1105</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="12" t="s">
         <v>1106</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11" t="s">
         <v>1107</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="12" t="s">
         <v>1108</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9" t="s">
+      <c r="D23" s="15"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11" t="s">
         <v>1109</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="12" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="24" ht="33" spans="1:7">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11" t="s">
         <v>1111</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="12" t="s">
         <v>1112</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="10" t="s">
+      <c r="D24" s="15"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="12" t="s">
         <v>1113</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="12" t="s">
         <v>1114</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11" t="s">
         <v>1115</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="12" t="s">
         <v>1116</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9" t="s">
+      <c r="D25" s="15"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11" t="s">
         <v>1117</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="12" t="s">
         <v>1118</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="18" t="s">
         <v>988</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="16" t="s">
         <v>1119</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="17" t="s">
         <v>1120</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9" t="s">
+      <c r="D26" s="15"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="11" t="s">
         <v>1121</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="12" t="s">
         <v>1122</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="17"/>
-      <c r="B27" s="15" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="17" t="s">
         <v>1123</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="17" t="s">
         <v>1124</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9" t="s">
+      <c r="D27" s="15"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="11" t="s">
         <v>1125</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="12" t="s">
         <v>1126</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="17"/>
-      <c r="B28" s="14" t="s">
+      <c r="A28" s="19"/>
+      <c r="B28" s="16" t="s">
         <v>1127</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="17" t="s">
         <v>1128</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="8" t="s">
+      <c r="D28" s="15"/>
+      <c r="E28" s="10" t="s">
         <v>1129</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="16" t="s">
         <v>1130</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="17" t="s">
         <v>1131</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="17"/>
-      <c r="B29" s="10" t="s">
+      <c r="A29" s="19"/>
+      <c r="B29" s="12" t="s">
         <v>1132</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="12" t="s">
         <v>1133</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="14" t="s">
+      <c r="D29" s="15"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="16" t="s">
         <v>1134</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="17" t="s">
         <v>1135</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="17"/>
-      <c r="B30" s="14" t="s">
+      <c r="A30" s="19"/>
+      <c r="B30" s="16" t="s">
         <v>1136</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="17" t="s">
         <v>1137</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="14" t="s">
+      <c r="D30" s="15"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="16" t="s">
         <v>1138</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G30" s="17" t="s">
         <v>1139</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="19" t="s">
         <v>1140</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="11" t="s">
         <v>1141</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="12" t="s">
         <v>1142</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="14" t="s">
+      <c r="D31" s="15"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="16" t="s">
         <v>1143</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="17" t="s">
         <v>1144</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="17"/>
-      <c r="B32" s="14" t="s">
+      <c r="A32" s="19"/>
+      <c r="B32" s="16" t="s">
         <v>1145</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="17" t="s">
         <v>1146</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="14" t="s">
+      <c r="D32" s="15"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="16" t="s">
         <v>1147</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="G32" s="17" t="s">
         <v>1148</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="17"/>
-      <c r="B33" s="15" t="s">
+      <c r="A33" s="19"/>
+      <c r="B33" s="17" t="s">
         <v>1149</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="17" t="s">
         <v>1150</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="14" t="s">
+      <c r="D33" s="15"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="16" t="s">
         <v>1151</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="17" t="s">
         <v>1152</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="17"/>
-      <c r="B34" s="9" t="s">
+      <c r="A34" s="19"/>
+      <c r="B34" s="11" t="s">
         <v>1153</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="12" t="s">
         <v>1154</v>
       </c>
-      <c r="D34" s="13"/>
+      <c r="D34" s="15"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="17"/>
-      <c r="B35" s="9" t="s">
+      <c r="A35" s="19"/>
+      <c r="B35" s="11" t="s">
         <v>1155</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="12" t="s">
         <v>1156</v>
       </c>
-      <c r="D35" s="13"/>
+      <c r="D35" s="15"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="17"/>
-      <c r="B36" s="14" t="s">
+      <c r="A36" s="19"/>
+      <c r="B36" s="16" t="s">
         <v>1157</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="17" t="s">
         <v>1158</v>
       </c>
-      <c r="D36" s="13"/>
-      <c r="F36" s="18" t="s">
+      <c r="D36" s="15"/>
+      <c r="F36" s="20" t="s">
         <v>1159</v>
       </c>
-      <c r="G36" s="19" t="s">
+      <c r="G36" s="21" t="s">
         <v>1160</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="17"/>
-      <c r="B37" s="14" t="s">
+      <c r="A37" s="19"/>
+      <c r="B37" s="16" t="s">
         <v>1161</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="17" t="s">
         <v>1162</v>
       </c>
-      <c r="D37" s="13"/>
+      <c r="D37" s="15"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="17"/>
-      <c r="B38" s="14" t="s">
+      <c r="A38" s="19"/>
+      <c r="B38" s="16" t="s">
         <v>1163</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="17" t="s">
         <v>1164</v>
       </c>
-      <c r="D38" s="13"/>
+      <c r="D38" s="15"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="20"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="13"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="15"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="22"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="25"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="25"/>
+      <c r="A63" s="27"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="27"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="25"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="25"/>
+      <c r="A64" s="27"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="27"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="25"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="25"/>
+      <c r="A65" s="27"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="27"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="25"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="25"/>
+      <c r="A66" s="27"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="27"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="28"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="28"/>
+      <c r="A67" s="30"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="30"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="28"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="28"/>
+      <c r="A68" s="30"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="30"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="28"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="28" t="s">
+      <c r="A69" s="30"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="30" t="s">
         <v>1165</v>
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="28"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="28"/>
+      <c r="A70" s="30"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="30"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="28"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="28"/>
+      <c r="A71" s="30"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="30"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="28"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="28"/>
+      <c r="A72" s="30"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="30"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="25"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="25"/>
+      <c r="A73" s="27"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="27"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="25"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="25"/>
+      <c r="A74" s="27"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="27"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="25"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="25"/>
+      <c r="A75" s="27"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="27"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="25"/>
-      <c r="B76" s="29"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="25"/>
+      <c r="A76" s="27"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="27"/>
     </row>
     <row r="77" spans="4:4">
-      <c r="D77" s="26"/>
+      <c r="D77" s="28"/>
     </row>
     <row r="78" spans="4:4">
-      <c r="D78" s="26"/>
+      <c r="D78" s="28"/>
     </row>
     <row r="79" spans="4:4">
-      <c r="D79" s="26"/>
+      <c r="D79" s="28"/>
     </row>
     <row r="80" spans="4:4">
-      <c r="D80" s="26"/>
+      <c r="D80" s="28"/>
     </row>
     <row r="81" spans="4:4">
-      <c r="D81" s="26"/>
+      <c r="D81" s="28"/>
     </row>
     <row r="82" spans="4:4">
-      <c r="D82" s="26"/>
+      <c r="D82" s="28"/>
     </row>
     <row r="83" spans="4:4">
-      <c r="D83" s="26"/>
+      <c r="D83" s="28"/>
     </row>
     <row r="84" spans="4:4">
-      <c r="D84" s="26"/>
+      <c r="D84" s="28"/>
     </row>
     <row r="85" spans="4:4">
-      <c r="D85" s="26"/>
+      <c r="D85" s="28"/>
     </row>
     <row r="86" spans="4:4">
-      <c r="D86" s="26"/>
+      <c r="D86" s="28"/>
     </row>
     <row r="87" spans="4:4">
-      <c r="D87" s="26"/>
+      <c r="D87" s="28"/>
     </row>
     <row r="88" spans="4:4">
-      <c r="D88" s="26"/>
+      <c r="D88" s="28"/>
     </row>
     <row r="89" spans="4:4">
-      <c r="D89" s="26"/>
+      <c r="D89" s="28"/>
     </row>
     <row r="90" spans="4:4">
-      <c r="D90" s="26"/>
+      <c r="D90" s="28"/>
     </row>
     <row r="91" spans="4:4">
-      <c r="D91" s="26"/>
+      <c r="D91" s="28"/>
     </row>
     <row r="92" spans="4:4">
-      <c r="D92" s="26"/>
+      <c r="D92" s="28"/>
     </row>
     <row r="97" spans="4:4">
-      <c r="D97" s="26"/>
+      <c r="D97" s="28"/>
     </row>
     <row r="98" spans="4:4">
-      <c r="D98" s="26"/>
+      <c r="D98" s="28"/>
     </row>
     <row r="99" spans="4:4">
-      <c r="D99" s="26"/>
+      <c r="D99" s="28"/>
     </row>
     <row r="100" spans="4:4">
-      <c r="D100" s="26"/>
+      <c r="D100" s="28"/>
     </row>
     <row r="101" spans="4:4">
-      <c r="D101" s="26"/>
+      <c r="D101" s="28"/>
     </row>
     <row r="103" spans="4:4">
-      <c r="D103" s="26"/>
+      <c r="D103" s="28"/>
     </row>
     <row r="104" spans="4:4">
-      <c r="D104" s="26"/>
+      <c r="D104" s="28"/>
     </row>
     <row r="107" spans="4:4">
-      <c r="D107" s="26"/>
+      <c r="D107" s="28"/>
     </row>
     <row r="108" spans="4:4">
-      <c r="D108" s="26"/>
+      <c r="D108" s="28"/>
     </row>
     <row r="109" spans="4:4">
-      <c r="D109" s="26"/>
+      <c r="D109" s="28"/>
     </row>
     <row r="110" spans="4:4">
-      <c r="D110" s="26"/>
+      <c r="D110" s="28"/>
     </row>
     <row r="117" spans="4:4">
-      <c r="D117" s="26"/>
+      <c r="D117" s="28"/>
     </row>
     <row r="118" spans="4:4">
-      <c r="D118" s="26"/>
+      <c r="D118" s="28"/>
     </row>
     <row r="123" spans="4:4">
-      <c r="D123" s="26"/>
+      <c r="D123" s="28"/>
     </row>
     <row r="124" spans="4:4">
-      <c r="D124" s="26"/>
+      <c r="D124" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="11">
